--- a/xgboost/effective_xgboost/fir.xlsx
+++ b/xgboost/effective_xgboost/fir.xlsx
@@ -1084,7 +1084,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.7109375" style="1" customWidth="1"/>
-    <col min="2" max="14" width="17.7109375" customWidth="1"/>
+    <col min="2" max="10" width="17.7109375" customWidth="1"/>
     <col min="11" max="12" width="18.7109375" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" customWidth="1"/>
     <col min="14" max="14" width="17.7109375" style="2" customWidth="1"/>
@@ -1146,22 +1146,22 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>597.0201283693998</v>
+        <v>597.0201334448003</v>
       </c>
       <c r="C2">
         <v>627</v>
       </c>
       <c r="D2">
-        <v>88.20819197553961</v>
+        <v>88.20819201831986</v>
       </c>
       <c r="E2">
-        <v>0.140682921811068</v>
+        <v>0.140682921879298</v>
       </c>
       <c r="F2">
-        <v>0.9521852127103665</v>
+        <v>0.9521852208051041</v>
       </c>
       <c r="G2">
-        <v>87.89239711976808</v>
+        <v>87.89239800937331</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1196,22 +1196,22 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>518.5458989368001</v>
+        <v>518.5458920114003</v>
       </c>
       <c r="C3">
         <v>702</v>
       </c>
       <c r="D3">
-        <v>123.0483514240607</v>
+        <v>123.0483516871195</v>
       </c>
       <c r="E3">
-        <v>0.1752825518861264</v>
+        <v>0.175282552260854</v>
       </c>
       <c r="F3">
-        <v>0.7386693717048435</v>
+        <v>0.7386693618396015</v>
       </c>
       <c r="G3">
-        <v>59.69872658110761</v>
+        <v>59.698724819557</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>517.7955247326998</v>
+        <v>517.7955336178001</v>
       </c>
       <c r="C4">
         <v>84</v>
       </c>
       <c r="D4">
-        <v>34.21499708252889</v>
+        <v>34.21499707550499</v>
       </c>
       <c r="E4">
-        <v>0.4073213938396296</v>
+        <v>0.4073213937560118</v>
       </c>
       <c r="F4">
-        <v>6.164232437294046</v>
+        <v>6.164232543069049</v>
       </c>
       <c r="G4">
-        <v>479.3943504732697</v>
+        <v>479.3943583807731</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1296,22 +1296,22 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>337.67589783019</v>
+        <v>337.6758950671199</v>
       </c>
       <c r="C5">
         <v>493</v>
       </c>
       <c r="D5">
-        <v>118.7160469611095</v>
+        <v>118.7160465745536</v>
       </c>
       <c r="E5">
-        <v>0.2408033406919057</v>
+        <v>0.2408033399078166</v>
       </c>
       <c r="F5">
-        <v>0.6849409692295944</v>
+        <v>0.6849409636249897</v>
       </c>
       <c r="G5">
-        <v>49.39404356451668</v>
+        <v>49.39404277680237</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -1346,22 +1346,22 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>327.0950549560901</v>
+        <v>327.0950464471801</v>
       </c>
       <c r="C6">
         <v>96</v>
       </c>
       <c r="D6">
-        <v>16.12226586945381</v>
+        <v>16.12226588007303</v>
       </c>
       <c r="E6">
-        <v>0.1679402694734772</v>
+        <v>0.1679402695840941</v>
       </c>
       <c r="F6">
-        <v>3.407240155792605</v>
+        <v>3.407240067158126</v>
       </c>
       <c r="G6">
-        <v>174.6580648789342</v>
+        <v>174.6580613114964</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -1396,22 +1396,22 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>295.9774612650999</v>
+        <v>295.9774660879</v>
       </c>
       <c r="C7">
         <v>254</v>
       </c>
       <c r="D7">
-        <v>76.7043684828523</v>
+        <v>76.70436841790064</v>
       </c>
       <c r="E7">
-        <v>0.3019857026883949</v>
+        <v>0.3019857024326797</v>
       </c>
       <c r="F7">
-        <v>1.165265595531889</v>
+        <v>1.165265614519291</v>
       </c>
       <c r="G7">
-        <v>83.74943284155738</v>
+        <v>83.74943362822005</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -1446,22 +1446,22 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>142.49334553499</v>
+        <v>142.4933469346399</v>
       </c>
       <c r="C8">
         <v>186</v>
       </c>
       <c r="D8">
-        <v>18.50638967905059</v>
+        <v>18.50638962649149</v>
       </c>
       <c r="E8">
-        <v>0.09949671870457304</v>
+        <v>0.09949671842199724</v>
       </c>
       <c r="F8">
-        <v>0.7660932555644624</v>
+        <v>0.766093263089462</v>
       </c>
       <c r="G8">
-        <v>15.34539116520287</v>
+        <v>15.34539139039738</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -1496,22 +1496,22 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>114.2859019631</v>
+        <v>114.2858997245</v>
       </c>
       <c r="C9">
         <v>129</v>
       </c>
       <c r="D9">
-        <v>14.67383561128572</v>
+        <v>14.67383554990403</v>
       </c>
       <c r="E9">
-        <v>0.1137506636533776</v>
+        <v>0.1137506631775506</v>
       </c>
       <c r="F9">
-        <v>0.8859372245201548</v>
+        <v>0.8859372071666667</v>
       </c>
       <c r="G9">
-        <v>10.78288690738048</v>
+        <v>10.78288697644006</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -1546,22 +1546,22 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>109.96411401294</v>
+        <v>109.96411397254</v>
       </c>
       <c r="C10">
         <v>81</v>
       </c>
       <c r="D10">
-        <v>11.80185713268426</v>
+        <v>11.80185711268027</v>
       </c>
       <c r="E10">
-        <v>0.1457019399096822</v>
+        <v>0.1457019396627193</v>
       </c>
       <c r="F10">
-        <v>1.35758165448074</v>
+        <v>1.357581653981975</v>
       </c>
       <c r="G10">
-        <v>20.501433381784</v>
+        <v>20.50143350392163</v>
       </c>
       <c r="H10">
         <v>9</v>
@@ -1596,22 +1596,22 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>68.7667558472</v>
+        <v>68.76675554320001</v>
       </c>
       <c r="C11">
         <v>58</v>
       </c>
       <c r="D11">
-        <v>23.04962593452778</v>
+        <v>23.04962600903452</v>
       </c>
       <c r="E11">
-        <v>0.3974073436987549</v>
+        <v>0.3974073449833538</v>
       </c>
       <c r="F11">
-        <v>1.185633721503448</v>
+        <v>1.185633716262069</v>
       </c>
       <c r="G11">
-        <v>25.91032132557286</v>
+        <v>25.91032118523962</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -1646,22 +1646,22 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>56.99765374460001</v>
+        <v>56.99765524290001</v>
       </c>
       <c r="C12">
         <v>71</v>
       </c>
       <c r="D12">
-        <v>6.851633246633154</v>
+        <v>6.851633251090965</v>
       </c>
       <c r="E12">
-        <v>0.09650187671314302</v>
+        <v>0.09650187677592909</v>
       </c>
       <c r="F12">
-        <v>0.8027838555577466</v>
+        <v>0.8027838766605635</v>
       </c>
       <c r="G12">
-        <v>4.266133272009098</v>
+        <v>4.266133340140125</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -1696,22 +1696,22 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>49.31913500729999</v>
+        <v>49.31913594700001</v>
       </c>
       <c r="C13">
         <v>72</v>
       </c>
       <c r="D13">
-        <v>5.993418730182883</v>
+        <v>5.993418718361557</v>
       </c>
       <c r="E13">
-        <v>0.0832419268080956</v>
+        <v>0.08324192664391052</v>
       </c>
       <c r="F13">
-        <v>0.6849879862124999</v>
+        <v>0.6849879992638891</v>
       </c>
       <c r="G13">
-        <v>4.05737817231517</v>
+        <v>4.057378143443162</v>
       </c>
       <c r="H13">
         <v>12</v>
@@ -1746,22 +1746,22 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>39.30712867320001</v>
+        <v>39.30712879679999</v>
       </c>
       <c r="C14">
         <v>49</v>
       </c>
       <c r="D14">
-        <v>7.522857203677224</v>
+        <v>7.522857217054157</v>
       </c>
       <c r="E14">
-        <v>0.1535276980342291</v>
+        <v>0.1535276983072277</v>
       </c>
       <c r="F14">
-        <v>0.8021862994530614</v>
+        <v>0.8021863019755099</v>
       </c>
       <c r="G14">
-        <v>5.302400781505582</v>
+        <v>5.302400919596829</v>
       </c>
       <c r="H14">
         <v>13</v>
@@ -1796,22 +1796,22 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>38.9156514049</v>
+        <v>38.9156508693</v>
       </c>
       <c r="C15">
         <v>62</v>
       </c>
       <c r="D15">
-        <v>8.702609721390409</v>
+        <v>8.702609723839124</v>
       </c>
       <c r="E15">
-        <v>0.1403646729256518</v>
+        <v>0.1403646729651472</v>
       </c>
       <c r="F15">
-        <v>0.6276717968532257</v>
+        <v>0.6276717882145162</v>
       </c>
       <c r="G15">
-        <v>4.432822498627607</v>
+        <v>4.432822470016051</v>
       </c>
       <c r="H15">
         <v>14</v>
@@ -1846,22 +1846,22 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>38.08883340439999</v>
+        <v>38.0888325841</v>
       </c>
       <c r="C16">
         <v>78</v>
       </c>
       <c r="D16">
-        <v>15.38858656535634</v>
+        <v>15.38858655072427</v>
       </c>
       <c r="E16">
-        <v>0.1972895713507224</v>
+        <v>0.1972895711631316</v>
       </c>
       <c r="F16">
-        <v>0.4883183769794871</v>
+        <v>0.4883183664628205</v>
       </c>
       <c r="G16">
-        <v>4.450696464783992</v>
+        <v>4.450696263498977</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -1896,22 +1896,22 @@
         <v>31</v>
       </c>
       <c r="B17">
-        <v>35.9041655035</v>
+        <v>35.9041652608</v>
       </c>
       <c r="C17">
         <v>42</v>
       </c>
       <c r="D17">
-        <v>9.821556189234295</v>
+        <v>9.821556252803321</v>
       </c>
       <c r="E17">
-        <v>0.2338465759341499</v>
+        <v>0.2338465774476981</v>
       </c>
       <c r="F17">
-        <v>0.8548610834166666</v>
+        <v>0.8548610776380953</v>
       </c>
       <c r="G17">
-        <v>5.90179905034149</v>
+        <v>5.901798939137384</v>
       </c>
       <c r="H17">
         <v>16</v>
@@ -1946,22 +1946,22 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>4.351220012900001</v>
+        <v>4.3512201331</v>
       </c>
       <c r="C18">
         <v>14</v>
       </c>
       <c r="D18">
-        <v>10.81042682993148</v>
+        <v>10.81042703354013</v>
       </c>
       <c r="E18">
-        <v>0.7721733449951055</v>
+        <v>0.7721733595385806</v>
       </c>
       <c r="F18">
-        <v>0.3108014294928572</v>
+        <v>0.3108014380785714</v>
       </c>
       <c r="G18">
-        <v>2.717169078640016</v>
+        <v>2.717169179513422</v>
       </c>
       <c r="H18">
         <v>17</v>
@@ -2005,7 +2005,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
-    <col min="2" max="14" width="17.7109375" customWidth="1"/>
+    <col min="2" max="10" width="17.7109375" customWidth="1"/>
     <col min="11" max="12" width="18.7109375" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" customWidth="1"/>
     <col min="14" max="14" width="17.7109375" style="2" customWidth="1"/>
@@ -2067,22 +2067,22 @@
         <v>33</v>
       </c>
       <c r="B2">
-        <v>1210.8042558799</v>
+        <v>1210.8042617583</v>
       </c>
       <c r="C2">
         <v>15</v>
       </c>
       <c r="D2">
-        <v>5.373928841260628</v>
+        <v>5.373928819677775</v>
       </c>
       <c r="E2">
-        <v>0.3582619227507085</v>
+        <v>0.3582619213118516</v>
       </c>
       <c r="F2">
-        <v>80.72028372532668</v>
+        <v>80.72028411722</v>
       </c>
       <c r="G2">
-        <v>607.6296873251312</v>
+        <v>607.6296914186387</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>34</v>
       </c>
       <c r="B3">
-        <v>523.8442021632</v>
+        <v>523.8442033395</v>
       </c>
       <c r="C3">
         <v>106</v>
       </c>
       <c r="D3">
-        <v>14.83294885212072</v>
+        <v>14.83294887091737</v>
       </c>
       <c r="E3">
-        <v>0.139933479736988</v>
+        <v>0.1399334799143148</v>
       </c>
       <c r="F3">
-        <v>4.941926435501887</v>
+        <v>4.941926446599057</v>
       </c>
       <c r="G3">
-        <v>77.85861146470513</v>
+        <v>77.85861176383345</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -2167,22 +2167,22 @@
         <v>35</v>
       </c>
       <c r="B4">
-        <v>492.6686329057</v>
+        <v>492.6686325273999</v>
       </c>
       <c r="C4">
         <v>310</v>
       </c>
       <c r="D4">
-        <v>30.70515472301188</v>
+        <v>30.7051545592712</v>
       </c>
       <c r="E4">
-        <v>0.09904888620326414</v>
+        <v>0.09904888567506839</v>
       </c>
       <c r="F4">
-        <v>1.589253654534516</v>
+        <v>1.589253653314193</v>
       </c>
       <c r="G4">
-        <v>44.04819584406901</v>
+        <v>44.04819561280495</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -2217,22 +2217,22 @@
         <v>36</v>
       </c>
       <c r="B5">
-        <v>441.2549269172999</v>
+        <v>441.2549179128001</v>
       </c>
       <c r="C5">
         <v>36</v>
       </c>
       <c r="D5">
-        <v>4.759235249829818</v>
+        <v>4.759235249871844</v>
       </c>
       <c r="E5">
-        <v>0.1322009791619394</v>
+        <v>0.1322009791631068</v>
       </c>
       <c r="F5">
-        <v>12.25708130325833</v>
+        <v>12.25708105313334</v>
       </c>
       <c r="G5">
-        <v>108.1928933048854</v>
+        <v>108.192892016709</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -2267,22 +2267,22 @@
         <v>37</v>
       </c>
       <c r="B6">
-        <v>344.6749521298001</v>
+        <v>344.6749411697</v>
       </c>
       <c r="C6">
         <v>219</v>
       </c>
       <c r="D6">
-        <v>38.7741732219933</v>
+        <v>38.7741733701694</v>
       </c>
       <c r="E6">
-        <v>0.1770510192785082</v>
+        <v>0.1770510199551114</v>
       </c>
       <c r="F6">
-        <v>1.573858228903197</v>
+        <v>1.573858178857078</v>
       </c>
       <c r="G6">
-        <v>30.61359012851089</v>
+        <v>30.61358911972157</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -2317,22 +2317,22 @@
         <v>38</v>
       </c>
       <c r="B7">
-        <v>316.3235818415999</v>
+        <v>316.3235801548402</v>
       </c>
       <c r="C7">
         <v>216</v>
       </c>
       <c r="D7">
-        <v>43.92753232473635</v>
+        <v>43.92753224110979</v>
       </c>
       <c r="E7">
-        <v>0.2033682052071127</v>
+        <v>0.2033682048199527</v>
       </c>
       <c r="F7">
-        <v>1.464461027044444</v>
+        <v>1.464461019235371</v>
       </c>
       <c r="G7">
-        <v>44.0194395101548</v>
+        <v>44.01943901154277</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -2367,22 +2367,22 @@
         <v>39</v>
       </c>
       <c r="B8">
-        <v>207.1693555124</v>
+        <v>207.169358823</v>
       </c>
       <c r="C8">
         <v>103</v>
       </c>
       <c r="D8">
-        <v>18.76513121009944</v>
+        <v>18.76513115666861</v>
       </c>
       <c r="E8">
-        <v>0.182185739903878</v>
+        <v>0.1821857393851321</v>
       </c>
       <c r="F8">
-        <v>2.011352966139806</v>
+        <v>2.011352998281553</v>
       </c>
       <c r="G8">
-        <v>33.99255450604574</v>
+        <v>33.99255469590603</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -2417,22 +2417,22 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>202.61503743904</v>
+        <v>202.61503726774</v>
       </c>
       <c r="C9">
         <v>34</v>
       </c>
       <c r="D9">
-        <v>3.596742254534242</v>
+        <v>3.596742252835828</v>
       </c>
       <c r="E9">
-        <v>0.1057865368980659</v>
+        <v>0.1057865368481126</v>
       </c>
       <c r="F9">
-        <v>5.959265807030587</v>
+        <v>5.959265801992354</v>
       </c>
       <c r="G9">
-        <v>31.5501949851076</v>
+        <v>31.55019506633004</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -2467,22 +2467,22 @@
         <v>41</v>
       </c>
       <c r="B10">
-        <v>177.7522794358001</v>
+        <v>177.7522766201</v>
       </c>
       <c r="C10">
         <v>140</v>
       </c>
       <c r="D10">
-        <v>27.20715330945254</v>
+        <v>27.20715348048187</v>
       </c>
       <c r="E10">
-        <v>0.1943368093532324</v>
+        <v>0.1943368105748705</v>
       </c>
       <c r="F10">
-        <v>1.269659138827143</v>
+        <v>1.269659118715</v>
       </c>
       <c r="G10">
-        <v>18.70259217854208</v>
+        <v>18.70259130450601</v>
       </c>
       <c r="H10">
         <v>9</v>
@@ -2567,22 +2567,22 @@
         <v>43</v>
       </c>
       <c r="B12">
-        <v>136.92640945867</v>
+        <v>136.92641010077</v>
       </c>
       <c r="C12">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>1.954895043041978</v>
+        <v>1.954895049351447</v>
       </c>
       <c r="E12">
-        <v>0.1629079202534981</v>
+        <v>0.1629079207792872</v>
       </c>
       <c r="F12">
-        <v>11.41053412155583</v>
+        <v>11.41053417506416</v>
       </c>
       <c r="G12">
-        <v>42.31349957457403</v>
+        <v>42.31349958244078</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -2617,22 +2617,22 @@
         <v>44</v>
       </c>
       <c r="B13">
-        <v>133.2162703863</v>
+        <v>133.2162703295</v>
       </c>
       <c r="C13">
         <v>80</v>
       </c>
       <c r="D13">
-        <v>27.21949865379353</v>
+        <v>27.21949866311044</v>
       </c>
       <c r="E13">
-        <v>0.3402437331724191</v>
+        <v>0.3402437332888805</v>
       </c>
       <c r="F13">
-        <v>1.665203379828749</v>
+        <v>1.66520337911875</v>
       </c>
       <c r="G13">
-        <v>25.64248868399847</v>
+        <v>25.64248872435364</v>
       </c>
       <c r="H13">
         <v>12</v>
@@ -2667,22 +2667,22 @@
         <v>45</v>
       </c>
       <c r="B14">
-        <v>121.6194382966</v>
+        <v>121.6194372733</v>
       </c>
       <c r="C14">
         <v>66</v>
       </c>
       <c r="D14">
-        <v>4.959270345556722</v>
+        <v>4.959270351218986</v>
       </c>
       <c r="E14">
-        <v>0.07514045978116246</v>
+        <v>0.07514045986695433</v>
       </c>
       <c r="F14">
-        <v>1.842718762069697</v>
+        <v>1.842718746565151</v>
       </c>
       <c r="G14">
-        <v>8.979593115023144</v>
+        <v>8.979592837391818</v>
       </c>
       <c r="H14">
         <v>13</v>
@@ -2717,22 +2717,22 @@
         <v>46</v>
       </c>
       <c r="B15">
-        <v>118.7661022828</v>
+        <v>118.7661099298</v>
       </c>
       <c r="C15">
         <v>82</v>
       </c>
       <c r="D15">
-        <v>9.345735750407803</v>
+        <v>9.345735758055721</v>
       </c>
       <c r="E15">
-        <v>0.1139723872000952</v>
+        <v>0.1139723872933625</v>
       </c>
       <c r="F15">
-        <v>1.448367101009756</v>
+        <v>1.448367194265854</v>
       </c>
       <c r="G15">
-        <v>10.26232239292558</v>
+        <v>10.26232242145553</v>
       </c>
       <c r="H15">
         <v>14</v>
@@ -2767,22 +2767,22 @@
         <v>47</v>
       </c>
       <c r="B16">
-        <v>116.4748556606</v>
+        <v>116.4748562347</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>4.64066654077148</v>
+        <v>4.640666533945096</v>
       </c>
       <c r="E16">
-        <v>0.3314761814836772</v>
+        <v>0.3314761809960783</v>
       </c>
       <c r="F16">
-        <v>8.319632547185714</v>
+        <v>8.319632588192857</v>
       </c>
       <c r="G16">
-        <v>72.27302570804791</v>
+        <v>72.27302585658926</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -2817,22 +2817,22 @@
         <v>48</v>
       </c>
       <c r="B17">
-        <v>97.6529978109</v>
+        <v>97.65299750779998</v>
       </c>
       <c r="C17">
         <v>32</v>
       </c>
       <c r="D17">
-        <v>6.713847816987655</v>
+        <v>6.713847815372015</v>
       </c>
       <c r="E17">
-        <v>0.2098077442808642</v>
+        <v>0.2098077442303755</v>
       </c>
       <c r="F17">
-        <v>3.051656181590625</v>
+        <v>3.051656172118749</v>
       </c>
       <c r="G17">
-        <v>20.42032968020057</v>
+        <v>20.42032954630738</v>
       </c>
       <c r="H17">
         <v>16</v>
@@ -2867,22 +2867,22 @@
         <v>49</v>
       </c>
       <c r="B18">
-        <v>96.9525397907</v>
+        <v>96.95254058249999</v>
       </c>
       <c r="C18">
         <v>77</v>
       </c>
       <c r="D18">
-        <v>5.931291824777832</v>
+        <v>5.931291841490337</v>
       </c>
       <c r="E18">
-        <v>0.07702976395815365</v>
+        <v>0.07702976417519918</v>
       </c>
       <c r="F18">
-        <v>1.259123893385714</v>
+        <v>1.259123903668831</v>
       </c>
       <c r="G18">
-        <v>7.438258148505192</v>
+        <v>7.438258325804871</v>
       </c>
       <c r="H18">
         <v>17</v>
@@ -2917,22 +2917,22 @@
         <v>50</v>
       </c>
       <c r="B19">
-        <v>93.8341580777</v>
+        <v>93.83415929029998</v>
       </c>
       <c r="C19">
         <v>35</v>
       </c>
       <c r="D19">
-        <v>2.330670159227025</v>
+        <v>2.330670146920744</v>
       </c>
       <c r="E19">
-        <v>0.06659057597791501</v>
+        <v>0.06659057562630698</v>
       </c>
       <c r="F19">
-        <v>2.680975945077143</v>
+        <v>2.680975979722857</v>
       </c>
       <c r="G19">
-        <v>8.432337684179322</v>
+        <v>8.432337719369782</v>
       </c>
       <c r="H19">
         <v>18</v>
@@ -2967,22 +2967,22 @@
         <v>51</v>
       </c>
       <c r="B20">
-        <v>90.50713823781004</v>
+        <v>90.50713750450998</v>
       </c>
       <c r="C20">
         <v>66</v>
       </c>
       <c r="D20">
-        <v>24.69371412583965</v>
+        <v>24.69371404566942</v>
       </c>
       <c r="E20">
-        <v>0.3741471837248432</v>
+        <v>0.3741471825101427</v>
       </c>
       <c r="F20">
-        <v>1.371320276330455</v>
+        <v>1.371320265219848</v>
       </c>
       <c r="G20">
-        <v>16.58225761320542</v>
+        <v>16.58225730365619</v>
       </c>
       <c r="H20">
         <v>19</v>
@@ -3017,22 +3017,22 @@
         <v>52</v>
       </c>
       <c r="B21">
-        <v>89.9320308381</v>
+        <v>89.93202951620002</v>
       </c>
       <c r="C21">
         <v>56</v>
       </c>
       <c r="D21">
-        <v>3.783232723090798</v>
+        <v>3.783232735326171</v>
       </c>
       <c r="E21">
-        <v>0.06755772719804996</v>
+        <v>0.06755772741653877</v>
       </c>
       <c r="F21">
-        <v>1.605929122108929</v>
+        <v>1.605929098503572</v>
       </c>
       <c r="G21">
-        <v>4.907522039952647</v>
+        <v>4.907521936199363</v>
       </c>
       <c r="H21">
         <v>20</v>
@@ -3067,22 +3067,22 @@
         <v>53</v>
       </c>
       <c r="B22">
-        <v>83.21703336238998</v>
+        <v>83.21703327064</v>
       </c>
       <c r="C22">
         <v>63</v>
       </c>
       <c r="D22">
-        <v>3.5848610172351</v>
+        <v>3.584860997328799</v>
       </c>
       <c r="E22">
-        <v>0.05690255582912857</v>
+        <v>0.05690255551315555</v>
       </c>
       <c r="F22">
-        <v>1.320905291466508</v>
+        <v>1.320905290010159</v>
       </c>
       <c r="G22">
-        <v>6.779623209492805</v>
+        <v>6.779623135545933</v>
       </c>
       <c r="H22">
         <v>21</v>
@@ -3117,22 +3117,22 @@
         <v>54</v>
       </c>
       <c r="B23">
-        <v>75.98422194749999</v>
+        <v>75.98421843519998</v>
       </c>
       <c r="C23">
         <v>45</v>
       </c>
       <c r="D23">
-        <v>5.02383893537348</v>
+        <v>5.023838897735249</v>
       </c>
       <c r="E23">
-        <v>0.1116408652305218</v>
+        <v>0.1116408643941166</v>
       </c>
       <c r="F23">
-        <v>1.6885382655</v>
+        <v>1.688538187448888</v>
       </c>
       <c r="G23">
-        <v>6.044851663834508</v>
+        <v>6.044851283818884</v>
       </c>
       <c r="H23">
         <v>22</v>
@@ -3167,22 +3167,22 @@
         <v>55</v>
       </c>
       <c r="B24">
-        <v>72.5034652834</v>
+        <v>72.50346537813</v>
       </c>
       <c r="C24">
         <v>49</v>
       </c>
       <c r="D24">
-        <v>6.151037529859343</v>
+        <v>6.151037522095439</v>
       </c>
       <c r="E24">
-        <v>0.1255313781603948</v>
+        <v>0.1255313780019477</v>
       </c>
       <c r="F24">
-        <v>1.479662556804082</v>
+        <v>1.479662558737347</v>
       </c>
       <c r="G24">
-        <v>6.385192313894759</v>
+        <v>6.385192343961571</v>
       </c>
       <c r="H24">
         <v>23</v>
@@ -3217,22 +3217,22 @@
         <v>56</v>
       </c>
       <c r="B25">
-        <v>63.7181350187</v>
+        <v>63.71813319970001</v>
       </c>
       <c r="C25">
         <v>50</v>
       </c>
       <c r="D25">
-        <v>6.321277172147191</v>
+        <v>6.321277146893859</v>
       </c>
       <c r="E25">
-        <v>0.1264255434429438</v>
+        <v>0.1264255429378772</v>
       </c>
       <c r="F25">
-        <v>1.274362700374</v>
+        <v>1.274362663994</v>
       </c>
       <c r="G25">
-        <v>5.121898644515359</v>
+        <v>5.121898408049516</v>
       </c>
       <c r="H25">
         <v>24</v>
@@ -3267,22 +3267,22 @@
         <v>57</v>
       </c>
       <c r="B26">
-        <v>62.0596053514</v>
+        <v>62.05960681189998</v>
       </c>
       <c r="C26">
         <v>23</v>
       </c>
       <c r="D26">
-        <v>4.856036159813017</v>
+        <v>4.856036154614999</v>
       </c>
       <c r="E26">
-        <v>0.211132006948392</v>
+        <v>0.2111320067223913</v>
       </c>
       <c r="F26">
-        <v>2.698243710930435</v>
+        <v>2.698243774430434</v>
       </c>
       <c r="G26">
-        <v>13.2611606518576</v>
+        <v>13.26116101919521</v>
       </c>
       <c r="H26">
         <v>25</v>
@@ -3317,22 +3317,22 @@
         <v>58</v>
       </c>
       <c r="B27">
-        <v>61.65935466420002</v>
+        <v>61.65935293719999</v>
       </c>
       <c r="C27">
         <v>41</v>
       </c>
       <c r="D27">
-        <v>3.109320994710006</v>
+        <v>3.109320982743228</v>
       </c>
       <c r="E27">
-        <v>0.07583709743195137</v>
+        <v>0.07583709714007875</v>
       </c>
       <c r="F27">
-        <v>1.50388669912683</v>
+        <v>1.503886657004878</v>
       </c>
       <c r="G27">
-        <v>3.439721470656782</v>
+        <v>3.439721175663509</v>
       </c>
       <c r="H27">
         <v>26</v>
@@ -3367,22 +3367,22 @@
         <v>59</v>
       </c>
       <c r="B28">
-        <v>60.76216558340001</v>
+        <v>60.76216570920001</v>
       </c>
       <c r="C28">
         <v>37</v>
       </c>
       <c r="D28">
-        <v>3.626448120215393</v>
+        <v>3.626448110192185</v>
       </c>
       <c r="E28">
-        <v>0.09801211135717279</v>
+        <v>0.09801211108627526</v>
       </c>
       <c r="F28">
-        <v>1.642220691443243</v>
+        <v>1.642220694843244</v>
       </c>
       <c r="G28">
-        <v>7.665060669361175</v>
+        <v>7.665060630184658</v>
       </c>
       <c r="H28">
         <v>27</v>
@@ -3417,22 +3417,22 @@
         <v>60</v>
       </c>
       <c r="B29">
-        <v>58.96790070600001</v>
+        <v>58.9679007164</v>
       </c>
       <c r="C29">
         <v>43</v>
       </c>
       <c r="D29">
-        <v>3.291206642957855</v>
+        <v>3.291206618790885</v>
       </c>
       <c r="E29">
-        <v>0.07653968937111291</v>
+        <v>0.07653968880909034</v>
       </c>
       <c r="F29">
-        <v>1.371346528046512</v>
+        <v>1.371346528288372</v>
       </c>
       <c r="G29">
-        <v>1.803426940065561</v>
+        <v>1.803426911856922</v>
       </c>
       <c r="H29">
         <v>28</v>
@@ -3467,22 +3467,22 @@
         <v>61</v>
       </c>
       <c r="B30">
-        <v>54.311377593</v>
+        <v>54.311377877</v>
       </c>
       <c r="C30">
         <v>11</v>
       </c>
       <c r="D30">
-        <v>3.916580149045558</v>
+        <v>3.916580150835779</v>
       </c>
       <c r="E30">
-        <v>0.3560527408223235</v>
+        <v>0.3560527409850708</v>
       </c>
       <c r="F30">
-        <v>4.937397963</v>
+        <v>4.937397988818182</v>
       </c>
       <c r="G30">
-        <v>28.34415525739821</v>
+        <v>28.34415531045842</v>
       </c>
       <c r="H30">
         <v>29</v>
@@ -3517,22 +3517,22 @@
         <v>62</v>
       </c>
       <c r="B31">
-        <v>54.20392056229999</v>
+        <v>54.20391961909999</v>
       </c>
       <c r="C31">
         <v>31</v>
       </c>
       <c r="D31">
-        <v>4.828871490260799</v>
+        <v>4.828871488717671</v>
       </c>
       <c r="E31">
-        <v>0.155770048072929</v>
+        <v>0.1557700480231507</v>
       </c>
       <c r="F31">
-        <v>1.748513566525806</v>
+        <v>1.7485135361</v>
       </c>
       <c r="G31">
-        <v>4.2408499890749</v>
+        <v>4.240849912035308</v>
       </c>
       <c r="H31">
         <v>30</v>
@@ -3567,22 +3567,22 @@
         <v>63</v>
       </c>
       <c r="B32">
-        <v>52.80871199709999</v>
+        <v>52.80871226590001</v>
       </c>
       <c r="C32">
         <v>21</v>
       </c>
       <c r="D32">
-        <v>2.446741850817427</v>
+        <v>2.446741835486426</v>
       </c>
       <c r="E32">
-        <v>0.1165115167055918</v>
+        <v>0.1165115159755441</v>
       </c>
       <c r="F32">
-        <v>2.514700571290476</v>
+        <v>2.514700584090476</v>
       </c>
       <c r="G32">
-        <v>4.879246444093744</v>
+        <v>4.879246417853269</v>
       </c>
       <c r="H32">
         <v>31</v>
@@ -3617,22 +3617,22 @@
         <v>64</v>
       </c>
       <c r="B33">
-        <v>52.75057789629999</v>
+        <v>52.7505777882</v>
       </c>
       <c r="C33">
         <v>35</v>
       </c>
       <c r="D33">
-        <v>4.557670931132306</v>
+        <v>4.55767092947964</v>
       </c>
       <c r="E33">
-        <v>0.130219169460923</v>
+        <v>0.130219169413704</v>
       </c>
       <c r="F33">
-        <v>1.507159368465714</v>
+        <v>1.507159365377143</v>
       </c>
       <c r="G33">
-        <v>5.691984284262075</v>
+        <v>5.6919843226396</v>
       </c>
       <c r="H33">
         <v>32</v>
@@ -3667,22 +3667,22 @@
         <v>65</v>
       </c>
       <c r="B34">
-        <v>44.610486002</v>
+        <v>44.6104866035</v>
       </c>
       <c r="C34">
         <v>29</v>
       </c>
       <c r="D34">
-        <v>6.821184442721563</v>
+        <v>6.821184407310358</v>
       </c>
       <c r="E34">
-        <v>0.2352132566455711</v>
+        <v>0.2352132554244951</v>
       </c>
       <c r="F34">
-        <v>1.538292620758621</v>
+        <v>1.5382926415</v>
       </c>
       <c r="G34">
-        <v>8.639413687705812</v>
+        <v>8.63941392222284</v>
       </c>
       <c r="H34">
         <v>33</v>
@@ -3717,22 +3717,22 @@
         <v>66</v>
       </c>
       <c r="B35">
-        <v>44.5683583018</v>
+        <v>44.56835841889999</v>
       </c>
       <c r="C35">
         <v>25</v>
       </c>
       <c r="D35">
-        <v>2.778671519328826</v>
+        <v>2.778671507885502</v>
       </c>
       <c r="E35">
-        <v>0.1111468607731531</v>
+        <v>0.1111468603154201</v>
       </c>
       <c r="F35">
-        <v>1.782734332072</v>
+        <v>1.782734336756</v>
       </c>
       <c r="G35">
-        <v>5.107551029302265</v>
+        <v>5.107550993846955</v>
       </c>
       <c r="H35">
         <v>34</v>
@@ -3767,22 +3767,22 @@
         <v>67</v>
       </c>
       <c r="B36">
-        <v>40.6791576119</v>
+        <v>40.6791572126</v>
       </c>
       <c r="C36">
         <v>15</v>
       </c>
       <c r="D36">
-        <v>2.69104021150785</v>
+        <v>2.69104030348291</v>
       </c>
       <c r="E36">
-        <v>0.17940268076719</v>
+        <v>0.1794026868988607</v>
       </c>
       <c r="F36">
-        <v>2.711943840793333</v>
+        <v>2.711943814173333</v>
       </c>
       <c r="G36">
-        <v>5.263001376894041</v>
+        <v>5.263001313949741</v>
       </c>
       <c r="H36">
         <v>35</v>
@@ -3817,22 +3817,22 @@
         <v>68</v>
       </c>
       <c r="B37">
-        <v>38.17687132809999</v>
+        <v>38.17687111030001</v>
       </c>
       <c r="C37">
         <v>27</v>
       </c>
       <c r="D37">
-        <v>3.699276671821591</v>
+        <v>3.699276691971355</v>
       </c>
       <c r="E37">
-        <v>0.1370102471045034</v>
+        <v>0.1370102478507909</v>
       </c>
       <c r="F37">
-        <v>1.413958197337037</v>
+        <v>1.413958189270371</v>
       </c>
       <c r="G37">
-        <v>5.202715601595465</v>
+        <v>5.20271565848947</v>
       </c>
       <c r="H37">
         <v>36</v>
@@ -3867,22 +3867,22 @@
         <v>69</v>
       </c>
       <c r="B38">
-        <v>36.031691336</v>
+        <v>36.03169113400001</v>
       </c>
       <c r="C38">
         <v>23</v>
       </c>
       <c r="D38">
-        <v>1.536942866373465</v>
+        <v>1.536942867205752</v>
       </c>
       <c r="E38">
-        <v>0.06682360288580282</v>
+        <v>0.06682360292198923</v>
       </c>
       <c r="F38">
-        <v>1.566595275478261</v>
+        <v>1.566595266695652</v>
       </c>
       <c r="G38">
-        <v>1.845797167768946</v>
+        <v>1.845797124718881</v>
       </c>
       <c r="H38">
         <v>37</v>
@@ -3917,7 +3917,7 @@
         <v>70</v>
       </c>
       <c r="B39">
-        <v>35.82216946920001</v>
+        <v>35.82216951839999</v>
       </c>
       <c r="C39">
         <v>20</v>
@@ -3929,10 +3929,10 @@
         <v>0.6266978347142811</v>
       </c>
       <c r="F39">
-        <v>1.79110847346</v>
+        <v>1.791108475919999</v>
       </c>
       <c r="G39">
-        <v>4.9225033931339</v>
+        <v>4.92250334430384</v>
       </c>
       <c r="H39">
         <v>38</v>
@@ -3967,7 +3967,7 @@
         <v>71</v>
       </c>
       <c r="B40">
-        <v>35.4026666054</v>
+        <v>35.40266506490001</v>
       </c>
       <c r="C40">
         <v>14</v>
@@ -3979,10 +3979,10 @@
         <v>0.29087448999705</v>
       </c>
       <c r="F40">
-        <v>2.528761900385714</v>
+        <v>2.52876179035</v>
       </c>
       <c r="G40">
-        <v>5.522970138355659</v>
+        <v>5.522970003920525</v>
       </c>
       <c r="H40">
         <v>39</v>
@@ -4017,22 +4017,22 @@
         <v>72</v>
       </c>
       <c r="B41">
-        <v>34.75467193999999</v>
+        <v>34.7546719781</v>
       </c>
       <c r="C41">
         <v>30</v>
       </c>
       <c r="D41">
-        <v>3.463106645865896</v>
+        <v>3.463106630887346</v>
       </c>
       <c r="E41">
-        <v>0.1154368881955299</v>
+        <v>0.1154368876962449</v>
       </c>
       <c r="F41">
-        <v>1.158489064666667</v>
+        <v>1.158489065936667</v>
       </c>
       <c r="G41">
-        <v>2.664029171174519</v>
+        <v>2.664029068303855</v>
       </c>
       <c r="H41">
         <v>40</v>
@@ -4067,22 +4067,22 @@
         <v>73</v>
       </c>
       <c r="B42">
-        <v>31.49535842360001</v>
+        <v>31.49535832380001</v>
       </c>
       <c r="C42">
         <v>25</v>
       </c>
       <c r="D42">
-        <v>10.96746801178854</v>
+        <v>10.96746780920273</v>
       </c>
       <c r="E42">
-        <v>0.4386987204715417</v>
+        <v>0.438698712368109</v>
       </c>
       <c r="F42">
-        <v>1.259814336944</v>
+        <v>1.259814332952</v>
       </c>
       <c r="G42">
-        <v>5.617177470285733</v>
+        <v>5.617177353470112</v>
       </c>
       <c r="H42">
         <v>41</v>
@@ -4117,22 +4117,22 @@
         <v>74</v>
       </c>
       <c r="B43">
-        <v>30.3752069569</v>
+        <v>30.3752081702</v>
       </c>
       <c r="C43">
         <v>15</v>
       </c>
       <c r="D43">
-        <v>1.872453701950177</v>
+        <v>1.872453700338915</v>
       </c>
       <c r="E43">
-        <v>0.1248302467966785</v>
+        <v>0.124830246689261</v>
       </c>
       <c r="F43">
-        <v>2.025013797126666</v>
+        <v>2.025013878013334</v>
       </c>
       <c r="G43">
-        <v>3.383770903103333</v>
+        <v>3.383770900082406</v>
       </c>
       <c r="H43">
         <v>42</v>
@@ -4167,22 +4167,22 @@
         <v>75</v>
       </c>
       <c r="B44">
-        <v>28.84249368800001</v>
+        <v>28.84249350990001</v>
       </c>
       <c r="C44">
         <v>25</v>
       </c>
       <c r="D44">
-        <v>1.752311610497393</v>
+        <v>1.752311614648395</v>
       </c>
       <c r="E44">
-        <v>0.07009246441989572</v>
+        <v>0.07009246458593582</v>
       </c>
       <c r="F44">
-        <v>1.15369974752</v>
+        <v>1.153699740396</v>
       </c>
       <c r="G44">
-        <v>1.053203205192304</v>
+        <v>1.053203164501871</v>
       </c>
       <c r="H44">
         <v>43</v>
@@ -4217,22 +4217,22 @@
         <v>76</v>
       </c>
       <c r="B45">
-        <v>26.5746321692</v>
+        <v>26.5746315674</v>
       </c>
       <c r="C45">
         <v>19</v>
       </c>
       <c r="D45">
-        <v>0.6374339653643069</v>
+        <v>0.6374339619151859</v>
       </c>
       <c r="E45">
-        <v>0.03354915607180562</v>
+        <v>0.03354915589027294</v>
       </c>
       <c r="F45">
-        <v>1.398664851010526</v>
+        <v>1.398664819336842</v>
       </c>
       <c r="G45">
-        <v>0.7822360611556396</v>
+        <v>0.7822360262264541</v>
       </c>
       <c r="H45">
         <v>44</v>
@@ -4267,22 +4267,22 @@
         <v>77</v>
       </c>
       <c r="B46">
-        <v>25.7925219151</v>
+        <v>25.7925218715</v>
       </c>
       <c r="C46">
         <v>14</v>
       </c>
       <c r="D46">
-        <v>1.738745747963681</v>
+        <v>1.738745763818605</v>
       </c>
       <c r="E46">
-        <v>0.1241961248545487</v>
+        <v>0.1241961259870432</v>
       </c>
       <c r="F46">
-        <v>1.842322993935714</v>
+        <v>1.842322990821428</v>
       </c>
       <c r="G46">
-        <v>1.377697822486693</v>
+        <v>1.377697821936634</v>
       </c>
       <c r="H46">
         <v>45</v>
@@ -4317,22 +4317,22 @@
         <v>78</v>
       </c>
       <c r="B47">
-        <v>25.16798784918</v>
+        <v>25.16798921877</v>
       </c>
       <c r="C47">
         <v>31</v>
       </c>
       <c r="D47">
-        <v>7.800623078823491</v>
+        <v>7.800623088619512</v>
       </c>
       <c r="E47">
-        <v>0.2516330025426933</v>
+        <v>0.2516330028586939</v>
       </c>
       <c r="F47">
-        <v>0.8118705757799999</v>
+        <v>0.8118706199603226</v>
       </c>
       <c r="G47">
-        <v>6.586786982223736</v>
+        <v>6.586787261881174</v>
       </c>
       <c r="H47">
         <v>46</v>
@@ -4367,22 +4367,22 @@
         <v>79</v>
       </c>
       <c r="B48">
-        <v>25.152208991</v>
+        <v>25.152208677</v>
       </c>
       <c r="C48">
         <v>13</v>
       </c>
       <c r="D48">
-        <v>1.593450379493773</v>
+        <v>1.593450372796367</v>
       </c>
       <c r="E48">
-        <v>0.1225731061149056</v>
+        <v>0.1225731055997205</v>
       </c>
       <c r="F48">
-        <v>1.934785307</v>
+        <v>1.934785282846154</v>
       </c>
       <c r="G48">
-        <v>2.07395694726404</v>
+        <v>2.073956932862315</v>
       </c>
       <c r="H48">
         <v>47</v>
@@ -4417,22 +4417,22 @@
         <v>80</v>
       </c>
       <c r="B49">
-        <v>23.17996981910001</v>
+        <v>23.1799704809</v>
       </c>
       <c r="C49">
         <v>15</v>
       </c>
       <c r="D49">
-        <v>1.206517576431181</v>
+        <v>1.206517569853354</v>
       </c>
       <c r="E49">
-        <v>0.08043450509541206</v>
+        <v>0.08043450465689027</v>
       </c>
       <c r="F49">
-        <v>1.545331321273334</v>
+        <v>1.545331365393333</v>
       </c>
       <c r="G49">
-        <v>1.606588226947372</v>
+        <v>1.606588346753105</v>
       </c>
       <c r="H49">
         <v>48</v>
@@ -4467,22 +4467,22 @@
         <v>81</v>
       </c>
       <c r="B50">
-        <v>22.9014961711</v>
+        <v>22.9014966547</v>
       </c>
       <c r="C50">
         <v>34</v>
       </c>
       <c r="D50">
-        <v>11.61191933520338</v>
+        <v>11.61191937030919</v>
       </c>
       <c r="E50">
-        <v>0.3415270392706877</v>
+        <v>0.3415270403032116</v>
       </c>
       <c r="F50">
-        <v>0.6735734167970588</v>
+        <v>0.6735734310205882</v>
       </c>
       <c r="G50">
-        <v>4.994447270363279</v>
+        <v>4.994447308382748</v>
       </c>
       <c r="H50">
         <v>49</v>
@@ -4517,22 +4517,22 @@
         <v>82</v>
       </c>
       <c r="B51">
-        <v>22.3728484227</v>
+        <v>22.3728487097</v>
       </c>
       <c r="C51">
         <v>26</v>
       </c>
       <c r="D51">
-        <v>3.833853160242495</v>
+        <v>3.833853250475733</v>
       </c>
       <c r="E51">
-        <v>0.1474558907785575</v>
+        <v>0.1474558942490667</v>
       </c>
       <c r="F51">
-        <v>0.8604941701038461</v>
+        <v>0.8604941811423079</v>
       </c>
       <c r="G51">
-        <v>3.206064388618079</v>
+        <v>3.206064385349622</v>
       </c>
       <c r="H51">
         <v>50</v>
@@ -4567,22 +4567,22 @@
         <v>83</v>
       </c>
       <c r="B52">
-        <v>22.3420823228</v>
+        <v>22.3420825531</v>
       </c>
       <c r="C52">
         <v>12</v>
       </c>
       <c r="D52">
-        <v>0.6650446190184297</v>
+        <v>0.6650446129470292</v>
       </c>
       <c r="E52">
-        <v>0.05542038491820248</v>
+        <v>0.05542038441225244</v>
       </c>
       <c r="F52">
-        <v>1.861840193566667</v>
+        <v>1.861840212758333</v>
       </c>
       <c r="G52">
-        <v>0.5408173612594367</v>
+        <v>0.5408173777970569</v>
       </c>
       <c r="H52">
         <v>51</v>
@@ -4617,22 +4617,22 @@
         <v>84</v>
       </c>
       <c r="B53">
-        <v>21.9699022352</v>
+        <v>21.969901871</v>
       </c>
       <c r="C53">
         <v>27</v>
       </c>
       <c r="D53">
-        <v>3.604271982489936</v>
+        <v>3.604271995065135</v>
       </c>
       <c r="E53">
-        <v>0.1334915549070347</v>
+        <v>0.1334915553727828</v>
       </c>
       <c r="F53">
-        <v>0.8137000827851852</v>
+        <v>0.8137000692962965</v>
       </c>
       <c r="G53">
-        <v>1.933593632343523</v>
+        <v>1.93359366790193</v>
       </c>
       <c r="H53">
         <v>52</v>
@@ -4717,22 +4717,22 @@
         <v>86</v>
       </c>
       <c r="B55">
-        <v>19.7791820475</v>
+        <v>19.7791819855</v>
       </c>
       <c r="C55">
         <v>15</v>
       </c>
       <c r="D55">
-        <v>2.233724846407134</v>
+        <v>2.233724843192914</v>
       </c>
       <c r="E55">
-        <v>0.1489149897604756</v>
+        <v>0.1489149895461943</v>
       </c>
       <c r="F55">
-        <v>1.3186121365</v>
+        <v>1.318612132366667</v>
       </c>
       <c r="G55">
-        <v>4.41049257167619</v>
+        <v>4.410492526406433</v>
       </c>
       <c r="H55">
         <v>54</v>
@@ -4767,22 +4767,22 @@
         <v>87</v>
       </c>
       <c r="B56">
-        <v>19.70702669</v>
+        <v>19.7070279366</v>
       </c>
       <c r="C56">
         <v>18</v>
       </c>
       <c r="D56">
-        <v>3.47568041306758</v>
+        <v>3.475680389328952</v>
       </c>
       <c r="E56">
-        <v>0.1930933562815322</v>
+        <v>0.1930933549627195</v>
       </c>
       <c r="F56">
-        <v>1.094834816111111</v>
+        <v>1.094834885366667</v>
       </c>
       <c r="G56">
-        <v>2.443299378779475</v>
+        <v>2.443299525432041</v>
       </c>
       <c r="H56">
         <v>55</v>
@@ -4817,22 +4817,22 @@
         <v>88</v>
       </c>
       <c r="B57">
-        <v>19.22025179649999</v>
+        <v>19.22025178159999</v>
       </c>
       <c r="C57">
         <v>16</v>
       </c>
       <c r="D57">
-        <v>5.44490069730737</v>
+        <v>5.444900624629391</v>
       </c>
       <c r="E57">
-        <v>0.3403062935817106</v>
+        <v>0.3403062890393369</v>
       </c>
       <c r="F57">
-        <v>1.20126573728125</v>
+        <v>1.20126573635</v>
       </c>
       <c r="G57">
-        <v>4.181820477105461</v>
+        <v>4.18182034887145</v>
       </c>
       <c r="H57">
         <v>56</v>
@@ -4867,22 +4867,22 @@
         <v>89</v>
       </c>
       <c r="B58">
-        <v>18.6045690146</v>
+        <v>18.6045691472</v>
       </c>
       <c r="C58">
         <v>22</v>
       </c>
       <c r="D58">
-        <v>2.093059484078195</v>
+        <v>2.093059477890692</v>
       </c>
       <c r="E58">
-        <v>0.09513906745809977</v>
+        <v>0.09513906717684963</v>
       </c>
       <c r="F58">
-        <v>0.8456622279363638</v>
+        <v>0.8456622339636365</v>
       </c>
       <c r="G58">
-        <v>1.082772823530805</v>
+        <v>1.082772781639312</v>
       </c>
       <c r="H58">
         <v>57</v>
@@ -4917,22 +4917,22 @@
         <v>90</v>
       </c>
       <c r="B59">
-        <v>17.8984846643</v>
+        <v>17.8984841911</v>
       </c>
       <c r="C59">
         <v>15</v>
       </c>
       <c r="D59">
-        <v>4.437261504349428</v>
+        <v>4.437261509756197</v>
       </c>
       <c r="E59">
-        <v>0.2958174336232952</v>
+        <v>0.2958174339837464</v>
       </c>
       <c r="F59">
-        <v>1.193232310953333</v>
+        <v>1.193232279406667</v>
       </c>
       <c r="G59">
-        <v>2.859647998159768</v>
+        <v>2.859647895637486</v>
       </c>
       <c r="H59">
         <v>58</v>
@@ -4967,22 +4967,22 @@
         <v>91</v>
       </c>
       <c r="B60">
-        <v>16.77465943</v>
+        <v>16.774659741</v>
       </c>
       <c r="C60">
         <v>14</v>
       </c>
       <c r="D60">
-        <v>1.529308393648111</v>
+        <v>1.52930839519932</v>
       </c>
       <c r="E60">
-        <v>0.1092363138320079</v>
+        <v>0.1092363139428085</v>
       </c>
       <c r="F60">
-        <v>1.198189959285714</v>
+        <v>1.1981899815</v>
       </c>
       <c r="G60">
-        <v>1.607995249323135</v>
+        <v>1.607995235785313</v>
       </c>
       <c r="H60">
         <v>59</v>
@@ -5017,7 +5017,7 @@
         <v>92</v>
       </c>
       <c r="B61">
-        <v>15.9485687151</v>
+        <v>15.948568997</v>
       </c>
       <c r="C61">
         <v>10</v>
@@ -5029,10 +5029,10 @@
         <v>0.04876320022261457</v>
       </c>
       <c r="F61">
-        <v>1.59485687151</v>
+        <v>1.5948568997</v>
       </c>
       <c r="G61">
-        <v>0.8032940031705749</v>
+        <v>0.8032940078396584</v>
       </c>
       <c r="H61">
         <v>60</v>
@@ -5067,22 +5067,22 @@
         <v>93</v>
       </c>
       <c r="B62">
-        <v>15.4205830677</v>
+        <v>15.420583192</v>
       </c>
       <c r="C62">
         <v>12</v>
       </c>
       <c r="D62">
-        <v>2.349686004560889</v>
+        <v>2.349685943943014</v>
       </c>
       <c r="E62">
-        <v>0.1958071670467407</v>
+        <v>0.1958071619952511</v>
       </c>
       <c r="F62">
-        <v>1.285048588975</v>
+        <v>1.285048599333333</v>
       </c>
       <c r="G62">
-        <v>1.266139781677422</v>
+        <v>1.266139793176403</v>
       </c>
       <c r="H62">
         <v>61</v>
@@ -5117,22 +5117,22 @@
         <v>94</v>
       </c>
       <c r="B63">
-        <v>15.3679421725</v>
+        <v>15.3679420485</v>
       </c>
       <c r="C63">
         <v>16</v>
       </c>
       <c r="D63">
-        <v>1.969731879047662</v>
+        <v>1.969731881496376</v>
       </c>
       <c r="E63">
-        <v>0.1231082424404789</v>
+        <v>0.1231082425935235</v>
       </c>
       <c r="F63">
-        <v>0.9604963857812501</v>
+        <v>0.9604963780312501</v>
       </c>
       <c r="G63">
-        <v>2.082510413865985</v>
+        <v>2.082510497641003</v>
       </c>
       <c r="H63">
         <v>62</v>
@@ -5167,7 +5167,7 @@
         <v>95</v>
       </c>
       <c r="B64">
-        <v>14.2758184772</v>
+        <v>14.2758181714</v>
       </c>
       <c r="C64">
         <v>15</v>
@@ -5179,10 +5179,10 @@
         <v>0.2397577388688317</v>
       </c>
       <c r="F64">
-        <v>0.9517212318133335</v>
+        <v>0.9517212114266668</v>
       </c>
       <c r="G64">
-        <v>2.490483542368464</v>
+        <v>2.490483510949864</v>
       </c>
       <c r="H64">
         <v>63</v>
@@ -5217,7 +5217,7 @@
         <v>96</v>
       </c>
       <c r="B65">
-        <v>13.9675406542</v>
+        <v>13.9675402854</v>
       </c>
       <c r="C65">
         <v>11</v>
@@ -5229,10 +5229,10 @@
         <v>0.09607601365368935</v>
       </c>
       <c r="F65">
-        <v>1.269776423109091</v>
+        <v>1.269776389581818</v>
       </c>
       <c r="G65">
-        <v>0.7127729360938768</v>
+        <v>0.7127728471225718</v>
       </c>
       <c r="H65">
         <v>64</v>
@@ -5267,22 +5267,22 @@
         <v>97</v>
       </c>
       <c r="B66">
-        <v>13.685440167</v>
+        <v>13.685440346</v>
       </c>
       <c r="C66">
         <v>4</v>
       </c>
       <c r="D66">
-        <v>0.1694378891973711</v>
+        <v>0.1694378874977044</v>
       </c>
       <c r="E66">
-        <v>0.04235947229934277</v>
+        <v>0.0423594718744261</v>
       </c>
       <c r="F66">
-        <v>3.42136004175</v>
+        <v>3.4213600865</v>
       </c>
       <c r="G66">
-        <v>0.9456102966314688</v>
+        <v>0.9456103009814742</v>
       </c>
       <c r="H66">
         <v>65</v>
@@ -5317,7 +5317,7 @@
         <v>98</v>
       </c>
       <c r="B67">
-        <v>13.5909788565</v>
+        <v>13.5909787545</v>
       </c>
       <c r="C67">
         <v>6</v>
@@ -5329,10 +5329,10 @@
         <v>0.2058096325437041</v>
       </c>
       <c r="F67">
-        <v>2.26516314275</v>
+        <v>2.26516312575</v>
       </c>
       <c r="G67">
-        <v>2.4921526307581</v>
+        <v>2.492152607158316</v>
       </c>
       <c r="H67">
         <v>66</v>
@@ -5367,7 +5367,7 @@
         <v>99</v>
       </c>
       <c r="B68">
-        <v>13.238195239</v>
+        <v>13.238195373</v>
       </c>
       <c r="C68">
         <v>9</v>
@@ -5379,10 +5379,10 @@
         <v>0.1024295713919869</v>
       </c>
       <c r="F68">
-        <v>1.470910582111111</v>
+        <v>1.470910597</v>
       </c>
       <c r="G68">
-        <v>1.334504940647405</v>
+        <v>1.334504921698551</v>
       </c>
       <c r="H68">
         <v>67</v>
@@ -5417,7 +5417,7 @@
         <v>100</v>
       </c>
       <c r="B69">
-        <v>13.089181095</v>
+        <v>13.089181198</v>
       </c>
       <c r="C69">
         <v>6</v>
@@ -5429,10 +5429,10 @@
         <v>0.04348068142491574</v>
       </c>
       <c r="F69">
-        <v>2.1815301825</v>
+        <v>2.181530199666667</v>
       </c>
       <c r="G69">
-        <v>0.4005900294950968</v>
+        <v>0.400590042148822</v>
       </c>
       <c r="H69">
         <v>68</v>
@@ -5467,22 +5467,22 @@
         <v>101</v>
       </c>
       <c r="B70">
-        <v>12.458641242</v>
+        <v>12.458641391</v>
       </c>
       <c r="C70">
         <v>7</v>
       </c>
       <c r="D70">
-        <v>0.2347685224967639</v>
+        <v>0.2347685259503225</v>
       </c>
       <c r="E70">
-        <v>0.03353836035668056</v>
+        <v>0.03353836085004608</v>
       </c>
       <c r="F70">
-        <v>1.779805891714286</v>
+        <v>1.779805913</v>
       </c>
       <c r="G70">
-        <v>0.3436888552260776</v>
+        <v>0.343688884758553</v>
       </c>
       <c r="H70">
         <v>69</v>
@@ -5517,22 +5517,22 @@
         <v>102</v>
       </c>
       <c r="B71">
-        <v>12.3574652874</v>
+        <v>12.3574654962</v>
       </c>
       <c r="C71">
         <v>5</v>
       </c>
       <c r="D71">
-        <v>0.08883282264568451</v>
+        <v>0.08883281921018808</v>
       </c>
       <c r="E71">
-        <v>0.0177665645291369</v>
+        <v>0.01776656384203762</v>
       </c>
       <c r="F71">
-        <v>2.47149305748</v>
+        <v>2.47149309924</v>
       </c>
       <c r="G71">
-        <v>0.1038079102645959</v>
+        <v>0.1038079164688465</v>
       </c>
       <c r="H71">
         <v>70</v>
@@ -5567,7 +5567,7 @@
         <v>103</v>
       </c>
       <c r="B72">
-        <v>12.138178225</v>
+        <v>12.138177657</v>
       </c>
       <c r="C72">
         <v>7</v>
@@ -5579,10 +5579,10 @@
         <v>0.08549605198704927</v>
       </c>
       <c r="F72">
-        <v>1.734025460714286</v>
+        <v>1.734025379571429</v>
       </c>
       <c r="G72">
-        <v>0.8114420436931714</v>
+        <v>0.8114419887348594</v>
       </c>
       <c r="H72">
         <v>71</v>
@@ -5617,7 +5617,7 @@
         <v>104</v>
       </c>
       <c r="B73">
-        <v>11.8558800525</v>
+        <v>11.8558801692</v>
       </c>
       <c r="C73">
         <v>9</v>
@@ -5629,10 +5629,10 @@
         <v>0.316112620811715</v>
       </c>
       <c r="F73">
-        <v>1.317320005833333</v>
+        <v>1.3173200188</v>
       </c>
       <c r="G73">
-        <v>0.9056245711231716</v>
+        <v>0.9056246411484632</v>
       </c>
       <c r="H73">
         <v>72</v>
@@ -5667,22 +5667,22 @@
         <v>105</v>
       </c>
       <c r="B74">
-        <v>11.3269348481</v>
+        <v>11.3269352221</v>
       </c>
       <c r="C74">
         <v>7</v>
       </c>
       <c r="D74">
-        <v>0.3337937781926303</v>
+        <v>0.3337937795965384</v>
       </c>
       <c r="E74">
-        <v>0.04768482545609005</v>
+        <v>0.04768482565664835</v>
       </c>
       <c r="F74">
-        <v>1.618133549728571</v>
+        <v>1.618133603157143</v>
       </c>
       <c r="G74">
-        <v>0.671782678863851</v>
+        <v>0.6717827032156453</v>
       </c>
       <c r="H74">
         <v>73</v>
@@ -5717,22 +5717,22 @@
         <v>106</v>
       </c>
       <c r="B75">
-        <v>10.74395565082</v>
+        <v>10.74395559338</v>
       </c>
       <c r="C75">
         <v>9</v>
       </c>
       <c r="D75">
-        <v>0.1216007237619693</v>
+        <v>0.121600727325766</v>
       </c>
       <c r="E75">
-        <v>0.0135111915291077</v>
+        <v>0.01351119192508511</v>
       </c>
       <c r="F75">
-        <v>1.193772850091111</v>
+        <v>1.193772843708889</v>
       </c>
       <c r="G75">
-        <v>0.1675221570736805</v>
+        <v>0.16752215613929</v>
       </c>
       <c r="H75">
         <v>74</v>
@@ -5767,22 +5767,22 @@
         <v>107</v>
       </c>
       <c r="B76">
-        <v>9.791959196399999</v>
+        <v>9.791959471199998</v>
       </c>
       <c r="C76">
         <v>8</v>
       </c>
       <c r="D76">
-        <v>1.707894878630033</v>
+        <v>1.707894880308864</v>
       </c>
       <c r="E76">
-        <v>0.2134868598287541</v>
+        <v>0.213486860038608</v>
       </c>
       <c r="F76">
-        <v>1.22399489955</v>
+        <v>1.2239949339</v>
       </c>
       <c r="G76">
-        <v>0.5734737345778286</v>
+        <v>0.5734737585312196</v>
       </c>
       <c r="H76">
         <v>75</v>
@@ -5817,7 +5817,7 @@
         <v>108</v>
       </c>
       <c r="B77">
-        <v>9.502291413</v>
+        <v>9.502291353</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -5829,10 +5829,10 @@
         <v>0.05458578942505114</v>
       </c>
       <c r="F77">
-        <v>4.7511457065</v>
+        <v>4.7511456765</v>
       </c>
       <c r="G77">
-        <v>0.2662416241707474</v>
+        <v>0.2662416189790228</v>
       </c>
       <c r="H77">
         <v>76</v>
@@ -5867,22 +5867,22 @@
         <v>109</v>
       </c>
       <c r="B78">
-        <v>9.191205261</v>
+        <v>9.191205038</v>
       </c>
       <c r="C78">
         <v>5</v>
       </c>
       <c r="D78">
-        <v>0.1491451983636625</v>
+        <v>0.1491451951272411</v>
       </c>
       <c r="E78">
-        <v>0.0298290396727325</v>
+        <v>0.02982903902544822</v>
       </c>
       <c r="F78">
-        <v>1.8382410522</v>
+        <v>1.8382410076</v>
       </c>
       <c r="G78">
-        <v>0.6014980883831003</v>
+        <v>0.6014980828997053</v>
       </c>
       <c r="H78">
         <v>77</v>
@@ -5917,22 +5917,22 @@
         <v>110</v>
       </c>
       <c r="B79">
-        <v>8.976819799000001</v>
+        <v>8.976819792000001</v>
       </c>
       <c r="C79">
         <v>7</v>
       </c>
       <c r="D79">
-        <v>0.1349241722506394</v>
+        <v>0.1349241740307101</v>
       </c>
       <c r="E79">
-        <v>0.01927488175009134</v>
+        <v>0.01927488200438716</v>
       </c>
       <c r="F79">
-        <v>1.282402828428572</v>
+        <v>1.282402827428571</v>
       </c>
       <c r="G79">
-        <v>0.1645564992995089</v>
+        <v>0.1645564969779698</v>
       </c>
       <c r="H79">
         <v>78</v>
@@ -5967,22 +5967,22 @@
         <v>111</v>
       </c>
       <c r="B80">
-        <v>8.211015878</v>
+        <v>8.211016985000001</v>
       </c>
       <c r="C80">
         <v>5</v>
       </c>
       <c r="D80">
-        <v>0.0907266456536969</v>
+        <v>0.09072664412799195</v>
       </c>
       <c r="E80">
-        <v>0.01814532913073938</v>
+        <v>0.01814532882559839</v>
       </c>
       <c r="F80">
-        <v>1.6422031756</v>
+        <v>1.642203397</v>
       </c>
       <c r="G80">
-        <v>0.1552459127308318</v>
+        <v>0.155245934697245</v>
       </c>
       <c r="H80">
         <v>79</v>
@@ -6017,22 +6017,22 @@
         <v>112</v>
       </c>
       <c r="B81">
-        <v>8.161041673400002</v>
+        <v>8.1610419179</v>
       </c>
       <c r="C81">
         <v>11</v>
       </c>
       <c r="D81">
-        <v>4.747236900400607</v>
+        <v>4.747237010900053</v>
       </c>
       <c r="E81">
-        <v>0.4315669909455097</v>
+        <v>0.4315670009909139</v>
       </c>
       <c r="F81">
-        <v>0.7419128794000002</v>
+        <v>0.7419129016272727</v>
       </c>
       <c r="G81">
-        <v>1.485922547970217</v>
+        <v>1.485922675347001</v>
       </c>
       <c r="H81">
         <v>80</v>
@@ -6067,22 +6067,22 @@
         <v>113</v>
       </c>
       <c r="B82">
-        <v>8.0240893894</v>
+        <v>8.0240897684</v>
       </c>
       <c r="C82">
         <v>8</v>
       </c>
       <c r="D82">
-        <v>1.139798060449056</v>
+        <v>1.139798061340472</v>
       </c>
       <c r="E82">
-        <v>0.142474757556132</v>
+        <v>0.142474757667559</v>
       </c>
       <c r="F82">
-        <v>1.003011173675</v>
+        <v>1.00301122105</v>
       </c>
       <c r="G82">
-        <v>0.7787218302770229</v>
+        <v>0.7787218026054595</v>
       </c>
       <c r="H82">
         <v>81</v>
@@ -6117,7 +6117,7 @@
         <v>114</v>
       </c>
       <c r="B83">
-        <v>7.662680609000001</v>
+        <v>7.662680698999999</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -6129,10 +6129,10 @@
         <v>0.114519249616951</v>
       </c>
       <c r="F83">
-        <v>1.5325361218</v>
+        <v>1.5325361398</v>
       </c>
       <c r="G83">
-        <v>0.7773806463657054</v>
+        <v>0.7773806583549119</v>
       </c>
       <c r="H83">
         <v>82</v>
@@ -6167,22 +6167,22 @@
         <v>115</v>
       </c>
       <c r="B84">
-        <v>7.582936220000001</v>
+        <v>7.582936099</v>
       </c>
       <c r="C84">
         <v>4</v>
       </c>
       <c r="D84">
-        <v>0.1810953063724936</v>
+        <v>0.1810953063724937</v>
       </c>
       <c r="E84">
         <v>0.04527382659312341</v>
       </c>
       <c r="F84">
-        <v>1.895734055</v>
+        <v>1.89573402475</v>
       </c>
       <c r="G84">
-        <v>0.2347704340278932</v>
+        <v>0.2347704247336443</v>
       </c>
       <c r="H84">
         <v>83</v>
@@ -6217,22 +6217,22 @@
         <v>116</v>
       </c>
       <c r="B85">
-        <v>7.409794685</v>
+        <v>7.40979482</v>
       </c>
       <c r="C85">
         <v>4</v>
       </c>
       <c r="D85">
-        <v>0.2416324811941042</v>
+        <v>0.2416324697939333</v>
       </c>
       <c r="E85">
-        <v>0.06040812029852604</v>
+        <v>0.06040811744848333</v>
       </c>
       <c r="F85">
-        <v>1.85244867125</v>
+        <v>1.852448705</v>
       </c>
       <c r="G85">
-        <v>0.5147144046894362</v>
+        <v>0.5147143910559302</v>
       </c>
       <c r="H85">
         <v>84</v>
@@ -6267,7 +6267,7 @@
         <v>117</v>
       </c>
       <c r="B86">
-        <v>7.3355337704</v>
+        <v>7.3355334782</v>
       </c>
       <c r="C86">
         <v>6</v>
@@ -6279,10 +6279,10 @@
         <v>0.1632494672624631</v>
       </c>
       <c r="F86">
-        <v>1.222588961733333</v>
+        <v>1.222588913033333</v>
       </c>
       <c r="G86">
-        <v>0.9286131559365547</v>
+        <v>0.9286132065198406</v>
       </c>
       <c r="H86">
         <v>85</v>
@@ -6317,22 +6317,22 @@
         <v>118</v>
       </c>
       <c r="B87">
-        <v>6.686156997399999</v>
+        <v>6.686156776300001</v>
       </c>
       <c r="C87">
         <v>7</v>
       </c>
       <c r="D87">
-        <v>1.053618070969997</v>
+        <v>1.053618018747488</v>
       </c>
       <c r="E87">
-        <v>0.1505168672814281</v>
+        <v>0.1505168598210698</v>
       </c>
       <c r="F87">
-        <v>0.9551652853428571</v>
+        <v>0.955165253757143</v>
       </c>
       <c r="G87">
-        <v>0.3873082363495668</v>
+        <v>0.3873082750484808</v>
       </c>
       <c r="H87">
         <v>86</v>
@@ -6367,7 +6367,7 @@
         <v>119</v>
       </c>
       <c r="B88">
-        <v>6.633730926999999</v>
+        <v>6.633731108</v>
       </c>
       <c r="C88">
         <v>6</v>
@@ -6379,10 +6379,10 @@
         <v>0.2701015134473954</v>
       </c>
       <c r="F88">
-        <v>1.105621821166667</v>
+        <v>1.105621851333333</v>
       </c>
       <c r="G88">
-        <v>1.492474329064853</v>
+        <v>1.492474454841957</v>
       </c>
       <c r="H88">
         <v>87</v>
@@ -6423,16 +6423,16 @@
         <v>2</v>
       </c>
       <c r="D89">
-        <v>1.040862971167325</v>
+        <v>1.040863022294908</v>
       </c>
       <c r="E89">
-        <v>0.5204314855836626</v>
+        <v>0.5204315111474538</v>
       </c>
       <c r="F89">
         <v>3.215543499</v>
       </c>
       <c r="G89">
-        <v>1.596553503644784</v>
+        <v>1.59655351714646</v>
       </c>
       <c r="H89">
         <v>88</v>
@@ -6517,22 +6517,22 @@
         <v>122</v>
       </c>
       <c r="B91">
-        <v>5.065711326</v>
+        <v>5.065711373</v>
       </c>
       <c r="C91">
         <v>6</v>
       </c>
       <c r="D91">
-        <v>0.2814739793187774</v>
+        <v>0.2814739680676688</v>
       </c>
       <c r="E91">
-        <v>0.04691232988646291</v>
+        <v>0.04691232801127814</v>
       </c>
       <c r="F91">
-        <v>0.8442852209999999</v>
+        <v>0.8442852288333333</v>
       </c>
       <c r="G91">
-        <v>0.2065861421147696</v>
+        <v>0.2065861374695897</v>
       </c>
       <c r="H91">
         <v>90</v>
@@ -6567,22 +6567,22 @@
         <v>123</v>
       </c>
       <c r="B92">
-        <v>4.953803301000001</v>
+        <v>4.953803389</v>
       </c>
       <c r="C92">
         <v>6</v>
       </c>
       <c r="D92">
-        <v>0.1496278343615491</v>
+        <v>0.1496278380410699</v>
       </c>
       <c r="E92">
-        <v>0.02493797239359151</v>
+        <v>0.02493797300684499</v>
       </c>
       <c r="F92">
-        <v>0.8256338835000001</v>
+        <v>0.8256338981666667</v>
       </c>
       <c r="G92">
-        <v>0.1366350261935766</v>
+        <v>0.136635029045783</v>
       </c>
       <c r="H92">
         <v>91</v>
@@ -6617,7 +6617,7 @@
         <v>124</v>
       </c>
       <c r="B93">
-        <v>4.777761522</v>
+        <v>4.777761433</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -6629,10 +6629,10 @@
         <v>0.1318222376918754</v>
       </c>
       <c r="F93">
-        <v>1.1944403805</v>
+        <v>1.19444035825</v>
       </c>
       <c r="G93">
-        <v>0.5482061177611434</v>
+        <v>0.5482061023520982</v>
       </c>
       <c r="H93">
         <v>92</v>
@@ -6667,7 +6667,7 @@
         <v>125</v>
       </c>
       <c r="B94">
-        <v>4.733481462</v>
+        <v>4.733481341</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -6679,10 +6679,10 @@
         <v>0.192565480149851</v>
       </c>
       <c r="F94">
-        <v>1.1833703655</v>
+        <v>1.18337033525</v>
       </c>
       <c r="G94">
-        <v>0.5800285761343759</v>
+        <v>0.5800285267806186</v>
       </c>
       <c r="H94">
         <v>93</v>
@@ -6717,7 +6717,7 @@
         <v>126</v>
       </c>
       <c r="B95">
-        <v>4.293199377</v>
+        <v>4.293199584</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -6729,10 +6729,10 @@
         <v>0.04225246114238344</v>
       </c>
       <c r="F95">
-        <v>1.07329984425</v>
+        <v>1.073299896</v>
       </c>
       <c r="G95">
-        <v>0.1505996549278016</v>
+        <v>0.1505996700962423</v>
       </c>
       <c r="H95">
         <v>94</v>
@@ -6767,7 +6767,7 @@
         <v>127</v>
       </c>
       <c r="B96">
-        <v>3.623140262</v>
+        <v>3.62314044</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -6779,10 +6779,10 @@
         <v>0.2812652525395608</v>
       </c>
       <c r="F96">
-        <v>1.207713420666667</v>
+        <v>1.20771348</v>
       </c>
       <c r="G96">
-        <v>0.4616242535688048</v>
+        <v>0.4616242989491698</v>
       </c>
       <c r="H96">
         <v>95</v>
@@ -6817,7 +6817,7 @@
         <v>128</v>
       </c>
       <c r="B97">
-        <v>3.5510441512</v>
+        <v>3.5510441365</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -6829,10 +6829,10 @@
         <v>0.3744933407354777</v>
       </c>
       <c r="F97">
-        <v>0.8877610378</v>
+        <v>0.8877610341250001</v>
       </c>
       <c r="G97">
-        <v>0.9348279758873621</v>
+        <v>0.9348279420918159</v>
       </c>
       <c r="H97">
         <v>96</v>
@@ -6867,7 +6867,7 @@
         <v>129</v>
       </c>
       <c r="B98">
-        <v>3.435432049</v>
+        <v>3.435432168</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -6879,10 +6879,10 @@
         <v>0.06186781141849582</v>
       </c>
       <c r="F98">
-        <v>1.7177160245</v>
+        <v>1.717716084</v>
       </c>
       <c r="G98">
-        <v>0.2152099311020036</v>
+        <v>0.2152099382962508</v>
       </c>
       <c r="H98">
         <v>97</v>
@@ -6967,22 +6967,22 @@
         <v>131</v>
       </c>
       <c r="B100">
-        <v>3.3024755727</v>
+        <v>3.3024756467</v>
       </c>
       <c r="C100">
         <v>4</v>
       </c>
       <c r="D100">
-        <v>0.1410846173174043</v>
+        <v>0.1410846189959414</v>
       </c>
       <c r="E100">
-        <v>0.03527115432935109</v>
+        <v>0.03527115474898534</v>
       </c>
       <c r="F100">
-        <v>0.8256188931749999</v>
+        <v>0.8256189116749999</v>
       </c>
       <c r="G100">
-        <v>0.1113265412658092</v>
+        <v>0.1113265385394799</v>
       </c>
       <c r="H100">
         <v>99</v>
@@ -7017,7 +7017,7 @@
         <v>132</v>
       </c>
       <c r="B101">
-        <v>3.289342885</v>
+        <v>3.289343123</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -7029,10 +7029,10 @@
         <v>0.5402865568791215</v>
       </c>
       <c r="F101">
-        <v>1.6446714425</v>
+        <v>1.6446715615</v>
       </c>
       <c r="G101">
-        <v>1.647865327710221</v>
+        <v>1.647865456298422</v>
       </c>
       <c r="H101">
         <v>100</v>
@@ -7076,7 +7076,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="63.7109375" style="1" customWidth="1"/>
-    <col min="2" max="14" width="17.7109375" customWidth="1"/>
+    <col min="2" max="10" width="17.7109375" customWidth="1"/>
     <col min="11" max="12" width="18.7109375" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" customWidth="1"/>
     <col min="14" max="14" width="17.7109375" style="2" customWidth="1"/>
@@ -7138,7 +7138,7 @@
         <v>133</v>
       </c>
       <c r="B2">
-        <v>1842.71136132</v>
+        <v>1842.71137465</v>
       </c>
       <c r="C2">
         <v>17</v>
@@ -7150,10 +7150,10 @@
         <v>0.1893494262142034</v>
       </c>
       <c r="F2">
-        <v>108.39478596</v>
+        <v>108.3947867441176</v>
       </c>
       <c r="G2">
-        <v>409.2611965517571</v>
+        <v>409.2612001363063</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -7188,22 +7188,22 @@
         <v>134</v>
       </c>
       <c r="B3">
-        <v>738.0116554171001</v>
+        <v>738.0116456832</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3">
-        <v>2.178273515782937</v>
+        <v>2.178273523900929</v>
       </c>
       <c r="E3">
-        <v>0.1089136757891468</v>
+        <v>0.1089136761950465</v>
       </c>
       <c r="F3">
-        <v>36.900582770855</v>
+        <v>36.90058228416</v>
       </c>
       <c r="G3">
-        <v>109.1224733488853</v>
+        <v>109.1224725416413</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -7238,22 +7238,22 @@
         <v>135</v>
       </c>
       <c r="B4">
-        <v>431.5413547154999</v>
+        <v>431.5413567154</v>
       </c>
       <c r="C4">
         <v>91</v>
       </c>
       <c r="D4">
-        <v>8.997654616188614</v>
+        <v>8.997654613676346</v>
       </c>
       <c r="E4">
-        <v>0.09887532545262213</v>
+        <v>0.09887532542501479</v>
       </c>
       <c r="F4">
-        <v>4.742212689181319</v>
+        <v>4.742212711158241</v>
       </c>
       <c r="G4">
-        <v>40.32204002476692</v>
+        <v>40.32203975778648</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -7288,7 +7288,7 @@
         <v>136</v>
       </c>
       <c r="B5">
-        <v>397.66787513</v>
+        <v>397.66788273</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -7300,10 +7300,10 @@
         <v>0.3326194052501893</v>
       </c>
       <c r="F5">
-        <v>79.53357502600001</v>
+        <v>79.53357654600001</v>
       </c>
       <c r="G5">
-        <v>135.9048618908454</v>
+        <v>135.904864529232</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -7388,7 +7388,7 @@
         <v>138</v>
       </c>
       <c r="B7">
-        <v>328.713180901</v>
+        <v>328.713181077</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -7400,10 +7400,10 @@
         <v>0.1277062487963559</v>
       </c>
       <c r="F7">
-        <v>54.78553015016666</v>
+        <v>54.7855301795</v>
       </c>
       <c r="G7">
-        <v>54.90861967463152</v>
+        <v>54.90861969526141</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -7438,22 +7438,22 @@
         <v>139</v>
       </c>
       <c r="B8">
-        <v>304.9528644997</v>
+        <v>304.9528638359999</v>
       </c>
       <c r="C8">
         <v>129</v>
       </c>
       <c r="D8">
-        <v>18.50262932331167</v>
+        <v>18.50262931447444</v>
       </c>
       <c r="E8">
-        <v>0.1434312350644315</v>
+        <v>0.1434312349959259</v>
       </c>
       <c r="F8">
-        <v>2.363975693796124</v>
+        <v>2.363975688651162</v>
       </c>
       <c r="G8">
-        <v>33.27274682994759</v>
+        <v>33.27274692210815</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -7488,22 +7488,22 @@
         <v>140</v>
       </c>
       <c r="B9">
-        <v>267.5379861363</v>
+        <v>267.5379868599999</v>
       </c>
       <c r="C9">
         <v>53</v>
       </c>
       <c r="D9">
-        <v>8.216888371950976</v>
+        <v>8.216888369187021</v>
       </c>
       <c r="E9">
-        <v>0.1550356296594524</v>
+        <v>0.1550356296073023</v>
       </c>
       <c r="F9">
-        <v>5.047886530873586</v>
+        <v>5.0478865445283</v>
       </c>
       <c r="G9">
-        <v>30.26704629461141</v>
+        <v>30.2670464876531</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -7538,7 +7538,7 @@
         <v>141</v>
       </c>
       <c r="B10">
-        <v>239.7034807043</v>
+        <v>239.7034808318</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -7550,10 +7550,10 @@
         <v>0.09799887748612833</v>
       </c>
       <c r="F10">
-        <v>29.9629350880375</v>
+        <v>29.962935103975</v>
       </c>
       <c r="G10">
-        <v>19.05045448899542</v>
+        <v>19.05045451165135</v>
       </c>
       <c r="H10">
         <v>9</v>
@@ -7588,22 +7588,22 @@
         <v>142</v>
       </c>
       <c r="B11">
-        <v>175.2025287349</v>
+        <v>175.20251420153</v>
       </c>
       <c r="C11">
         <v>31</v>
       </c>
       <c r="D11">
-        <v>2.637778900074262</v>
+        <v>2.637778897875655</v>
       </c>
       <c r="E11">
-        <v>0.08508964193787942</v>
+        <v>0.0850896418669566</v>
       </c>
       <c r="F11">
-        <v>5.651694475319355</v>
+        <v>5.651694006500969</v>
       </c>
       <c r="G11">
-        <v>7.47675248602459</v>
+        <v>7.476750989394524</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -7638,22 +7638,22 @@
         <v>143</v>
       </c>
       <c r="B12">
-        <v>167.142448663</v>
+        <v>167.142448722</v>
       </c>
       <c r="C12">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>2.54551306740684</v>
+        <v>2.545513065725679</v>
       </c>
       <c r="E12">
-        <v>0.21212608895057</v>
+        <v>0.2121260888104732</v>
       </c>
       <c r="F12">
-        <v>13.92853738858333</v>
+        <v>13.9285373935</v>
       </c>
       <c r="G12">
-        <v>42.46423614758846</v>
+        <v>42.46423614989389</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -7688,22 +7688,22 @@
         <v>144</v>
       </c>
       <c r="B13">
-        <v>162.9011563756</v>
+        <v>162.9011568918</v>
       </c>
       <c r="C13">
         <v>62</v>
       </c>
       <c r="D13">
-        <v>4.901062842262695</v>
+        <v>4.901062817860962</v>
       </c>
       <c r="E13">
-        <v>0.07904940068165636</v>
+        <v>0.07904940028808002</v>
       </c>
       <c r="F13">
-        <v>2.627438006058064</v>
+        <v>2.627438014383871</v>
       </c>
       <c r="G13">
-        <v>10.72475531655476</v>
+        <v>10.72475526735413</v>
       </c>
       <c r="H13">
         <v>12</v>
@@ -7738,22 +7738,22 @@
         <v>145</v>
       </c>
       <c r="B14">
-        <v>156.7347671733</v>
+        <v>156.734770808</v>
       </c>
       <c r="C14">
         <v>84</v>
       </c>
       <c r="D14">
-        <v>8.943138567183292</v>
+        <v>8.943138474367416</v>
       </c>
       <c r="E14">
-        <v>0.1064659353236106</v>
+        <v>0.1064659342186597</v>
       </c>
       <c r="F14">
-        <v>1.865890085396428</v>
+        <v>1.865890128666666</v>
       </c>
       <c r="G14">
-        <v>9.956201299079444</v>
+        <v>9.956201942973633</v>
       </c>
       <c r="H14">
         <v>13</v>
@@ -7788,22 +7788,22 @@
         <v>146</v>
       </c>
       <c r="B15">
-        <v>154.3132425534</v>
+        <v>154.3132447679999</v>
       </c>
       <c r="C15">
         <v>55</v>
       </c>
       <c r="D15">
-        <v>15.01342355819199</v>
+        <v>15.01342358158799</v>
       </c>
       <c r="E15">
-        <v>0.2729713374216725</v>
+        <v>0.2729713378470543</v>
       </c>
       <c r="F15">
-        <v>2.805695319152727</v>
+        <v>2.805695359418181</v>
       </c>
       <c r="G15">
-        <v>17.35873802153248</v>
+        <v>17.35873820849539</v>
       </c>
       <c r="H15">
         <v>14</v>
@@ -7838,22 +7838,22 @@
         <v>147</v>
       </c>
       <c r="B16">
-        <v>145.5345905549</v>
+        <v>145.5345911689001</v>
       </c>
       <c r="C16">
         <v>17</v>
       </c>
       <c r="D16">
-        <v>2.879715603820538</v>
+        <v>2.879715602595423</v>
       </c>
       <c r="E16">
-        <v>0.1693950355188552</v>
+        <v>0.1693950354467896</v>
       </c>
       <c r="F16">
-        <v>8.560858267935295</v>
+        <v>8.560858304052944</v>
       </c>
       <c r="G16">
-        <v>34.97537800089378</v>
+        <v>34.97537817042159</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -7888,7 +7888,7 @@
         <v>148</v>
       </c>
       <c r="B17">
-        <v>141.082434795</v>
+        <v>141.082434794</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -7900,10 +7900,10 @@
         <v>0.07415554449884865</v>
       </c>
       <c r="F17">
-        <v>20.15463354214286</v>
+        <v>20.154633542</v>
       </c>
       <c r="G17">
-        <v>13.20002730800156</v>
+        <v>13.20002730791695</v>
       </c>
       <c r="H17">
         <v>16</v>
@@ -7938,22 +7938,22 @@
         <v>149</v>
       </c>
       <c r="B18">
-        <v>131.1595769743</v>
+        <v>131.1595770154</v>
       </c>
       <c r="C18">
         <v>18</v>
       </c>
       <c r="D18">
-        <v>1.644290500255643</v>
+        <v>1.644290501866904</v>
       </c>
       <c r="E18">
-        <v>0.09134947223642459</v>
+        <v>0.09134947232593911</v>
       </c>
       <c r="F18">
-        <v>7.286643165238889</v>
+        <v>7.286643167522223</v>
       </c>
       <c r="G18">
-        <v>24.75068325153218</v>
+        <v>24.75068326418784</v>
       </c>
       <c r="H18">
         <v>17</v>
@@ -7988,22 +7988,22 @@
         <v>150</v>
       </c>
       <c r="B19">
-        <v>114.647959771</v>
+        <v>114.64795971</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19">
-        <v>0.2555855151502993</v>
+        <v>0.2555855133674679</v>
       </c>
       <c r="E19">
-        <v>0.08519517171676644</v>
+        <v>0.0851951711224893</v>
       </c>
       <c r="F19">
-        <v>38.21598659033333</v>
+        <v>38.21598657</v>
       </c>
       <c r="G19">
-        <v>13.93585111186331</v>
+        <v>13.93585110682976</v>
       </c>
       <c r="H19">
         <v>18</v>
@@ -8038,22 +8038,22 @@
         <v>151</v>
       </c>
       <c r="B20">
-        <v>108.607082354</v>
+        <v>108.607080318</v>
       </c>
       <c r="C20">
         <v>7</v>
       </c>
       <c r="D20">
-        <v>0.3467489174883829</v>
+        <v>0.346748915807222</v>
       </c>
       <c r="E20">
-        <v>0.04953555964119755</v>
+        <v>0.04953555940103171</v>
       </c>
       <c r="F20">
-        <v>15.51529747914286</v>
+        <v>15.51529718828571</v>
       </c>
       <c r="G20">
-        <v>9.473505051020524</v>
+        <v>9.473504603535009</v>
       </c>
       <c r="H20">
         <v>19</v>
@@ -8088,22 +8088,22 @@
         <v>152</v>
       </c>
       <c r="B21">
-        <v>107.0145467273</v>
+        <v>107.0145473694</v>
       </c>
       <c r="C21">
         <v>27</v>
       </c>
       <c r="D21">
-        <v>1.225815635570005</v>
+        <v>1.225815640635922</v>
       </c>
       <c r="E21">
-        <v>0.04540057909518538</v>
+        <v>0.04540057928281191</v>
       </c>
       <c r="F21">
-        <v>3.963501730640741</v>
+        <v>3.963501754422223</v>
       </c>
       <c r="G21">
-        <v>2.160580486234509</v>
+        <v>2.160580485545931</v>
       </c>
       <c r="H21">
         <v>20</v>
@@ -8138,22 +8138,22 @@
         <v>153</v>
       </c>
       <c r="B22">
-        <v>103.2299976422</v>
+        <v>103.2299961439</v>
       </c>
       <c r="C22">
         <v>66</v>
       </c>
       <c r="D22">
-        <v>12.86281687609124</v>
+        <v>12.86281696174937</v>
       </c>
       <c r="E22">
-        <v>0.1948911647892612</v>
+        <v>0.1948911660871116</v>
       </c>
       <c r="F22">
-        <v>1.564090873366667</v>
+        <v>1.564090850665151</v>
       </c>
       <c r="G22">
-        <v>8.67304894344659</v>
+        <v>8.673048454943604</v>
       </c>
       <c r="H22">
         <v>21</v>
@@ -8188,22 +8188,22 @@
         <v>154</v>
       </c>
       <c r="B23">
-        <v>99.93232265969998</v>
+        <v>99.93232278440001</v>
       </c>
       <c r="C23">
         <v>16</v>
       </c>
       <c r="D23">
-        <v>2.363698268001152</v>
+        <v>2.363698275026488</v>
       </c>
       <c r="E23">
-        <v>0.147731141750072</v>
+        <v>0.1477311421891555</v>
       </c>
       <c r="F23">
-        <v>6.245770166231249</v>
+        <v>6.245770174025001</v>
       </c>
       <c r="G23">
-        <v>3.564733917026673</v>
+        <v>3.564733902443975</v>
       </c>
       <c r="H23">
         <v>22</v>
@@ -8238,22 +8238,22 @@
         <v>155</v>
       </c>
       <c r="B24">
-        <v>99.70745777249999</v>
+        <v>99.7074561517</v>
       </c>
       <c r="C24">
         <v>24</v>
       </c>
       <c r="D24">
-        <v>1.800790158363046</v>
+        <v>1.800790121896822</v>
       </c>
       <c r="E24">
-        <v>0.07503292326512692</v>
+        <v>0.07503292174570093</v>
       </c>
       <c r="F24">
-        <v>4.1544774071875</v>
+        <v>4.154477339654167</v>
       </c>
       <c r="G24">
-        <v>7.404425992736643</v>
+        <v>7.404425650490206</v>
       </c>
       <c r="H24">
         <v>23</v>
@@ -8288,22 +8288,22 @@
         <v>156</v>
       </c>
       <c r="B25">
-        <v>97.38899338360001</v>
+        <v>97.38899168059999</v>
       </c>
       <c r="C25">
         <v>52</v>
       </c>
       <c r="D25">
-        <v>18.63316220518363</v>
+        <v>18.63316215494351</v>
       </c>
       <c r="E25">
-        <v>0.3583300424073776</v>
+        <v>0.3583300414412213</v>
       </c>
       <c r="F25">
-        <v>1.872865257376923</v>
+        <v>1.872865224626923</v>
       </c>
       <c r="G25">
-        <v>16.97434699294903</v>
+        <v>16.97434642460601</v>
       </c>
       <c r="H25">
         <v>24</v>
@@ -8338,22 +8338,22 @@
         <v>157</v>
       </c>
       <c r="B26">
-        <v>94.46792491389996</v>
+        <v>94.46792472210001</v>
       </c>
       <c r="C26">
         <v>49</v>
       </c>
       <c r="D26">
-        <v>12.03876246954817</v>
+        <v>12.03876239229594</v>
       </c>
       <c r="E26">
-        <v>0.245689029990779</v>
+        <v>0.2456890284142029</v>
       </c>
       <c r="F26">
-        <v>1.92791683497755</v>
+        <v>1.927916831063266</v>
       </c>
       <c r="G26">
-        <v>12.67120409956846</v>
+        <v>12.67120408609664</v>
       </c>
       <c r="H26">
         <v>25</v>
@@ -8388,22 +8388,22 @@
         <v>158</v>
       </c>
       <c r="B27">
-        <v>93.41432414960001</v>
+        <v>93.41432385479996</v>
       </c>
       <c r="C27">
         <v>38</v>
       </c>
       <c r="D27">
-        <v>1.980010902581318</v>
+        <v>1.980010891737525</v>
       </c>
       <c r="E27">
-        <v>0.05210555006792943</v>
+        <v>0.05210554978256645</v>
       </c>
       <c r="F27">
-        <v>2.458271688147369</v>
+        <v>2.458271680389473</v>
       </c>
       <c r="G27">
-        <v>5.196486065271501</v>
+        <v>5.196486036498983</v>
       </c>
       <c r="H27">
         <v>26</v>
@@ -8438,22 +8438,22 @@
         <v>159</v>
       </c>
       <c r="B28">
-        <v>86.18833177740004</v>
+        <v>86.18833302510001</v>
       </c>
       <c r="C28">
         <v>57</v>
       </c>
       <c r="D28">
-        <v>2.64700984281804</v>
+        <v>2.647009829533022</v>
       </c>
       <c r="E28">
-        <v>0.04643876917224631</v>
+        <v>0.04643876893917583</v>
       </c>
       <c r="F28">
-        <v>1.512075996094737</v>
+        <v>1.512076017984211</v>
       </c>
       <c r="G28">
-        <v>2.546997738132922</v>
+        <v>2.546997800216683</v>
       </c>
       <c r="H28">
         <v>27</v>
@@ -8488,7 +8488,7 @@
         <v>160</v>
       </c>
       <c r="B29">
-        <v>84.83399668569999</v>
+        <v>84.83399695800001</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -8500,10 +8500,10 @@
         <v>0.144326015043463</v>
       </c>
       <c r="F29">
-        <v>10.6042495857125</v>
+        <v>10.60424961975</v>
       </c>
       <c r="G29">
-        <v>6.555207964045006</v>
+        <v>6.555207976051801</v>
       </c>
       <c r="H29">
         <v>28</v>
@@ -8538,22 +8538,22 @@
         <v>161</v>
       </c>
       <c r="B30">
-        <v>83.9256973948</v>
+        <v>83.9256969101</v>
       </c>
       <c r="C30">
         <v>33</v>
       </c>
       <c r="D30">
-        <v>6.500979658423055</v>
+        <v>6.500979660923538</v>
       </c>
       <c r="E30">
-        <v>0.1969993835885774</v>
+        <v>0.1969993836643496</v>
       </c>
       <c r="F30">
-        <v>2.543202951357576</v>
+        <v>2.543202936669697</v>
       </c>
       <c r="G30">
-        <v>5.920771909760717</v>
+        <v>5.920771750899991</v>
       </c>
       <c r="H30">
         <v>29</v>
@@ -8588,22 +8588,22 @@
         <v>162</v>
       </c>
       <c r="B31">
-        <v>79.1082631891</v>
+        <v>79.10826197590002</v>
       </c>
       <c r="C31">
         <v>28</v>
       </c>
       <c r="D31">
-        <v>1.376901467662912</v>
+        <v>1.376901462907213</v>
       </c>
       <c r="E31">
-        <v>0.04917505241653257</v>
+        <v>0.04917505224668618</v>
       </c>
       <c r="F31">
-        <v>2.825295113896428</v>
+        <v>2.825295070567858</v>
       </c>
       <c r="G31">
-        <v>4.934579657384702</v>
+        <v>4.934579561018139</v>
       </c>
       <c r="H31">
         <v>30</v>
@@ -8638,22 +8638,22 @@
         <v>163</v>
       </c>
       <c r="B32">
-        <v>77.85970739609999</v>
+        <v>77.85970731050001</v>
       </c>
       <c r="C32">
         <v>14</v>
       </c>
       <c r="D32">
-        <v>0.8361276974741876</v>
+        <v>0.8361277004259929</v>
       </c>
       <c r="E32">
-        <v>0.05972340696244197</v>
+        <v>0.05972340717328521</v>
       </c>
       <c r="F32">
-        <v>5.56140767115</v>
+        <v>5.561407665035715</v>
       </c>
       <c r="G32">
-        <v>6.118337175029026</v>
+        <v>6.118337176086158</v>
       </c>
       <c r="H32">
         <v>31</v>
@@ -8688,7 +8688,7 @@
         <v>164</v>
       </c>
       <c r="B33">
-        <v>75.5264917219</v>
+        <v>75.52649195950001</v>
       </c>
       <c r="C33">
         <v>9</v>
@@ -8700,10 +8700,10 @@
         <v>0.09836123186345673</v>
       </c>
       <c r="F33">
-        <v>8.391832413544444</v>
+        <v>8.391832439944444</v>
       </c>
       <c r="G33">
-        <v>28.41252212147689</v>
+        <v>28.41252212790343</v>
       </c>
       <c r="H33">
         <v>32</v>
@@ -8738,22 +8738,22 @@
         <v>165</v>
       </c>
       <c r="B34">
-        <v>67.31731364309999</v>
+        <v>67.317313927</v>
       </c>
       <c r="C34">
         <v>19</v>
       </c>
       <c r="D34">
-        <v>0.6242241393261349</v>
+        <v>0.6242241357635172</v>
       </c>
       <c r="E34">
-        <v>0.03285390206979657</v>
+        <v>0.03285390188229038</v>
       </c>
       <c r="F34">
-        <v>3.543016507531579</v>
+        <v>3.543016522473684</v>
       </c>
       <c r="G34">
-        <v>2.203203110208412</v>
+        <v>2.203203119413828</v>
       </c>
       <c r="H34">
         <v>33</v>
@@ -8788,22 +8788,22 @@
         <v>166</v>
       </c>
       <c r="B35">
-        <v>66.2215119487</v>
+        <v>66.22151274160001</v>
       </c>
       <c r="C35">
         <v>8</v>
       </c>
       <c r="D35">
-        <v>0.5419979966466725</v>
+        <v>0.5419979981725793</v>
       </c>
       <c r="E35">
-        <v>0.06774974958083406</v>
+        <v>0.06774974977157242</v>
       </c>
       <c r="F35">
-        <v>8.2776889935875</v>
+        <v>8.277689092700001</v>
       </c>
       <c r="G35">
-        <v>4.003892683452484</v>
+        <v>4.003892711168049</v>
       </c>
       <c r="H35">
         <v>34</v>
@@ -8838,7 +8838,7 @@
         <v>167</v>
       </c>
       <c r="B36">
-        <v>65.09153104479999</v>
+        <v>65.0915325837</v>
       </c>
       <c r="C36">
         <v>12</v>
@@ -8850,10 +8850,10 @@
         <v>0.1284734528741987</v>
       </c>
       <c r="F36">
-        <v>5.424294253733333</v>
+        <v>5.424294381975</v>
       </c>
       <c r="G36">
-        <v>15.01543541445758</v>
+        <v>15.01543543572746</v>
       </c>
       <c r="H36">
         <v>35</v>
@@ -8888,7 +8888,7 @@
         <v>168</v>
       </c>
       <c r="B37">
-        <v>63.6887462883</v>
+        <v>63.68874563780001</v>
       </c>
       <c r="C37">
         <v>11</v>
@@ -8900,10 +8900,10 @@
         <v>0.2099174349765381</v>
       </c>
       <c r="F37">
-        <v>5.78988602620909</v>
+        <v>5.789885967072729</v>
       </c>
       <c r="G37">
-        <v>11.20415025088611</v>
+        <v>11.20415021441833</v>
       </c>
       <c r="H37">
         <v>36</v>
@@ -8938,22 +8938,22 @@
         <v>169</v>
       </c>
       <c r="B38">
-        <v>62.81544391937</v>
+        <v>62.81544430617</v>
       </c>
       <c r="C38">
         <v>9</v>
       </c>
       <c r="D38">
-        <v>1.83477311813136</v>
+        <v>1.834773101844968</v>
       </c>
       <c r="E38">
-        <v>0.2038636797923733</v>
+        <v>0.2038636779827742</v>
       </c>
       <c r="F38">
-        <v>6.979493768818888</v>
+        <v>6.979493811796667</v>
       </c>
       <c r="G38">
-        <v>12.4128260303612</v>
+        <v>12.41282511450784</v>
       </c>
       <c r="H38">
         <v>37</v>
@@ -8988,22 +8988,22 @@
         <v>170</v>
       </c>
       <c r="B39">
-        <v>59.06418213750001</v>
+        <v>59.0641801891</v>
       </c>
       <c r="C39">
         <v>30</v>
       </c>
       <c r="D39">
-        <v>2.180234467453283</v>
+        <v>2.180234430721184</v>
       </c>
       <c r="E39">
-        <v>0.07267448224844278</v>
+        <v>0.07267448102403946</v>
       </c>
       <c r="F39">
-        <v>1.96880607125</v>
+        <v>1.968806006303333</v>
       </c>
       <c r="G39">
-        <v>2.910703755139662</v>
+        <v>2.910703428470583</v>
       </c>
       <c r="H39">
         <v>38</v>
@@ -9038,7 +9038,7 @@
         <v>171</v>
       </c>
       <c r="B40">
-        <v>57.805094517</v>
+        <v>57.80509432299999</v>
       </c>
       <c r="C40">
         <v>13</v>
@@ -9050,10 +9050,10 @@
         <v>0.138244652036549</v>
       </c>
       <c r="F40">
-        <v>4.446545732076923</v>
+        <v>4.446545717153845</v>
       </c>
       <c r="G40">
-        <v>8.039912663007232</v>
+        <v>8.039912605296824</v>
       </c>
       <c r="H40">
         <v>39</v>
@@ -9088,22 +9088,22 @@
         <v>172</v>
       </c>
       <c r="B41">
-        <v>57.0782834549</v>
+        <v>57.07828366179999</v>
       </c>
       <c r="C41">
         <v>27</v>
       </c>
       <c r="D41">
-        <v>3.011155657823151</v>
+        <v>3.011155665231631</v>
       </c>
       <c r="E41">
-        <v>0.1115242836230797</v>
+        <v>0.1115242838974678</v>
       </c>
       <c r="F41">
-        <v>2.11401049832963</v>
+        <v>2.114010505992592</v>
       </c>
       <c r="G41">
-        <v>3.421146799713759</v>
+        <v>3.421146795026095</v>
       </c>
       <c r="H41">
         <v>40</v>
@@ -9138,22 +9138,22 @@
         <v>173</v>
       </c>
       <c r="B42">
-        <v>55.87101087200001</v>
+        <v>55.87101066300001</v>
       </c>
       <c r="C42">
         <v>24</v>
       </c>
       <c r="D42">
-        <v>1.98492495398488</v>
+        <v>1.984924927727426</v>
       </c>
       <c r="E42">
-        <v>0.08270520641603667</v>
+        <v>0.08270520532197609</v>
       </c>
       <c r="F42">
-        <v>2.327958786333334</v>
+        <v>2.327958777625</v>
       </c>
       <c r="G42">
-        <v>5.167172984972114</v>
+        <v>5.167172807791268</v>
       </c>
       <c r="H42">
         <v>41</v>
@@ -9188,22 +9188,22 @@
         <v>174</v>
       </c>
       <c r="B43">
-        <v>53.93104262999999</v>
+        <v>53.9310423542</v>
       </c>
       <c r="C43">
         <v>14</v>
       </c>
       <c r="D43">
-        <v>0.61053703149845</v>
+        <v>0.6105370299728622</v>
       </c>
       <c r="E43">
-        <v>0.04360978796417499</v>
+        <v>0.04360978785520444</v>
       </c>
       <c r="F43">
-        <v>3.852217330714285</v>
+        <v>3.852217311014285</v>
       </c>
       <c r="G43">
-        <v>1.778732770194749</v>
+        <v>1.778732771679959</v>
       </c>
       <c r="H43">
         <v>42</v>
@@ -9238,22 +9238,22 @@
         <v>175</v>
       </c>
       <c r="B44">
-        <v>53.0501828471</v>
+        <v>53.05017972579999</v>
       </c>
       <c r="C44">
         <v>22</v>
       </c>
       <c r="D44">
-        <v>0.874826526613908</v>
+        <v>0.8748265130673099</v>
       </c>
       <c r="E44">
-        <v>0.039764842118814</v>
+        <v>0.03976484150305954</v>
       </c>
       <c r="F44">
-        <v>2.411371947595454</v>
+        <v>2.411371805718181</v>
       </c>
       <c r="G44">
-        <v>2.089428520532445</v>
+        <v>2.08942837928986</v>
       </c>
       <c r="H44">
         <v>43</v>
@@ -9288,22 +9288,22 @@
         <v>176</v>
       </c>
       <c r="B45">
-        <v>52.9053236417</v>
+        <v>52.90532274509999</v>
       </c>
       <c r="C45">
         <v>25</v>
       </c>
       <c r="D45">
-        <v>3.210349308624601</v>
+        <v>3.210349305183382</v>
       </c>
       <c r="E45">
-        <v>0.1284139723449841</v>
+        <v>0.1284139722073353</v>
       </c>
       <c r="F45">
-        <v>2.116212945668</v>
+        <v>2.116212909804</v>
       </c>
       <c r="G45">
-        <v>6.619047254879657</v>
+        <v>6.61904721027541</v>
       </c>
       <c r="H45">
         <v>44</v>
@@ -9338,7 +9338,7 @@
         <v>177</v>
       </c>
       <c r="B46">
-        <v>52.24522682291001</v>
+        <v>52.24522780901</v>
       </c>
       <c r="C46">
         <v>16</v>
@@ -9350,10 +9350,10 @@
         <v>0.3324161899782903</v>
       </c>
       <c r="F46">
-        <v>3.265326676431875</v>
+        <v>3.265326738063125</v>
       </c>
       <c r="G46">
-        <v>9.245316926265604</v>
+        <v>9.245317284396357</v>
       </c>
       <c r="H46">
         <v>45</v>
@@ -9388,22 +9388,22 @@
         <v>178</v>
       </c>
       <c r="B47">
-        <v>51.74139018409999</v>
+        <v>51.74139028649999</v>
       </c>
       <c r="C47">
         <v>9</v>
       </c>
       <c r="D47">
-        <v>0.2673322213573351</v>
+        <v>0.2673322165267871</v>
       </c>
       <c r="E47">
-        <v>0.02970358015081502</v>
+        <v>0.02970357961408745</v>
       </c>
       <c r="F47">
-        <v>5.749043353788888</v>
+        <v>5.749043365166666</v>
       </c>
       <c r="G47">
-        <v>3.855839624271946</v>
+        <v>3.855839610162841</v>
       </c>
       <c r="H47">
         <v>46</v>
@@ -9438,22 +9438,22 @@
         <v>179</v>
       </c>
       <c r="B48">
-        <v>50.097405401</v>
+        <v>50.09740411189999</v>
       </c>
       <c r="C48">
         <v>19</v>
       </c>
       <c r="D48">
-        <v>1.383480285399878</v>
+        <v>1.383480283701465</v>
       </c>
       <c r="E48">
-        <v>0.07281475186315149</v>
+        <v>0.07281475177376129</v>
       </c>
       <c r="F48">
-        <v>2.636705547421053</v>
+        <v>2.636705479573684</v>
       </c>
       <c r="G48">
-        <v>3.307352481649061</v>
+        <v>3.307352341687661</v>
       </c>
       <c r="H48">
         <v>47</v>
@@ -9488,22 +9488,22 @@
         <v>180</v>
       </c>
       <c r="B49">
-        <v>47.0884946568</v>
+        <v>47.0884942834</v>
       </c>
       <c r="C49">
         <v>17</v>
       </c>
       <c r="D49">
-        <v>2.342507625316308</v>
+        <v>2.342507604936149</v>
       </c>
       <c r="E49">
-        <v>0.1377945661950769</v>
+        <v>0.137794564996244</v>
       </c>
       <c r="F49">
-        <v>2.7699114504</v>
+        <v>2.769911428435294</v>
       </c>
       <c r="G49">
-        <v>4.632393852929796</v>
+        <v>4.632393895081511</v>
       </c>
       <c r="H49">
         <v>48</v>
@@ -9538,22 +9538,22 @@
         <v>181</v>
       </c>
       <c r="B50">
-        <v>45.72846677500001</v>
+        <v>45.7284663863</v>
       </c>
       <c r="C50">
         <v>23</v>
       </c>
       <c r="D50">
-        <v>1.400889770271161</v>
+        <v>1.400889764530461</v>
       </c>
       <c r="E50">
-        <v>0.06090825088135482</v>
+        <v>0.06090825063175916</v>
       </c>
       <c r="F50">
-        <v>1.988194207608696</v>
+        <v>1.988194190708696</v>
       </c>
       <c r="G50">
-        <v>2.388102445368487</v>
+        <v>2.388102449433745</v>
       </c>
       <c r="H50">
         <v>49</v>
@@ -9588,7 +9588,7 @@
         <v>182</v>
       </c>
       <c r="B51">
-        <v>43.66380607190001</v>
+        <v>43.6638060065</v>
       </c>
       <c r="C51">
         <v>24</v>
@@ -9600,10 +9600,10 @@
         <v>0.1127379399721006</v>
       </c>
       <c r="F51">
-        <v>1.819325252995833</v>
+        <v>1.819325250270833</v>
       </c>
       <c r="G51">
-        <v>3.105729373829377</v>
+        <v>3.10572927708829</v>
       </c>
       <c r="H51">
         <v>50</v>
@@ -9638,7 +9638,7 @@
         <v>183</v>
       </c>
       <c r="B52">
-        <v>40.68466160179999</v>
+        <v>40.6846613255</v>
       </c>
       <c r="C52">
         <v>12</v>
@@ -9650,10 +9650,10 @@
         <v>0.1547342167924702</v>
       </c>
       <c r="F52">
-        <v>3.390388466816666</v>
+        <v>3.390388443791667</v>
       </c>
       <c r="G52">
-        <v>3.776132212809339</v>
+        <v>3.776132146749173</v>
       </c>
       <c r="H52">
         <v>51</v>
@@ -9688,22 +9688,22 @@
         <v>184</v>
       </c>
       <c r="B53">
-        <v>40.6057361207</v>
+        <v>40.6057358635</v>
       </c>
       <c r="C53">
         <v>15</v>
       </c>
       <c r="D53">
-        <v>3.201570703484278</v>
+        <v>3.201570702767389</v>
       </c>
       <c r="E53">
-        <v>0.2134380468989518</v>
+        <v>0.2134380468511592</v>
       </c>
       <c r="F53">
-        <v>2.707049074713333</v>
+        <v>2.707049057566667</v>
       </c>
       <c r="G53">
-        <v>11.55698956174085</v>
+        <v>11.55698948313526</v>
       </c>
       <c r="H53">
         <v>52</v>
@@ -9738,22 +9738,22 @@
         <v>185</v>
       </c>
       <c r="B54">
-        <v>38.88674670439001</v>
+        <v>38.88674744252999</v>
       </c>
       <c r="C54">
         <v>18</v>
       </c>
       <c r="D54">
-        <v>3.053785202103727</v>
+        <v>3.053785200341953</v>
       </c>
       <c r="E54">
-        <v>0.1696547334502071</v>
+        <v>0.1696547333523307</v>
       </c>
       <c r="F54">
-        <v>2.160374816910556</v>
+        <v>2.160374857918333</v>
       </c>
       <c r="G54">
-        <v>7.752306568848877</v>
+        <v>7.752306658679339</v>
       </c>
       <c r="H54">
         <v>53</v>
@@ -9788,22 +9788,22 @@
         <v>186</v>
       </c>
       <c r="B55">
-        <v>38.81094487149999</v>
+        <v>38.81094513459999</v>
       </c>
       <c r="C55">
         <v>18</v>
       </c>
       <c r="D55">
-        <v>0.6026028349881126</v>
+        <v>0.6026028385130635</v>
       </c>
       <c r="E55">
-        <v>0.03347793527711737</v>
+        <v>0.03347793547294797</v>
       </c>
       <c r="F55">
-        <v>2.156163603972222</v>
+        <v>2.156163618588888</v>
       </c>
       <c r="G55">
-        <v>1.405929232364563</v>
+        <v>1.405929251159211</v>
       </c>
       <c r="H55">
         <v>54</v>
@@ -9838,22 +9838,22 @@
         <v>187</v>
       </c>
       <c r="B56">
-        <v>38.73724678600001</v>
+        <v>38.73724695700001</v>
       </c>
       <c r="C56">
         <v>20</v>
       </c>
       <c r="D56">
-        <v>1.081998432487089</v>
+        <v>1.081998417541372</v>
       </c>
       <c r="E56">
-        <v>0.05409992162435447</v>
+        <v>0.05409992087706861</v>
       </c>
       <c r="F56">
-        <v>1.9368623393</v>
+        <v>1.93686234785</v>
       </c>
       <c r="G56">
-        <v>2.116630918005827</v>
+        <v>2.116630896253714</v>
       </c>
       <c r="H56">
         <v>55</v>
@@ -9888,22 +9888,22 @@
         <v>188</v>
       </c>
       <c r="B57">
-        <v>36.6017368925</v>
+        <v>36.6017367413</v>
       </c>
       <c r="C57">
         <v>21</v>
       </c>
       <c r="D57">
-        <v>2.991452036337999</v>
+        <v>2.991452041947011</v>
       </c>
       <c r="E57">
-        <v>0.1424500969684762</v>
+        <v>0.1424500972355719</v>
       </c>
       <c r="F57">
-        <v>1.74293985202381</v>
+        <v>1.74293984482381</v>
       </c>
       <c r="G57">
-        <v>3.418666988638982</v>
+        <v>3.418667099531652</v>
       </c>
       <c r="H57">
         <v>56</v>
@@ -9938,7 +9938,7 @@
         <v>189</v>
       </c>
       <c r="B58">
-        <v>35.305651257</v>
+        <v>35.305650617</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -9950,10 +9950,10 @@
         <v>0.2050699078825402</v>
       </c>
       <c r="F58">
-        <v>5.8842752095</v>
+        <v>5.884275102833333</v>
       </c>
       <c r="G58">
-        <v>5.226236563609875</v>
+        <v>5.226236461064969</v>
       </c>
       <c r="H58">
         <v>57</v>
@@ -9988,22 +9988,22 @@
         <v>190</v>
       </c>
       <c r="B59">
-        <v>34.75708207980001</v>
+        <v>34.75708174250001</v>
       </c>
       <c r="C59">
         <v>15</v>
       </c>
       <c r="D59">
-        <v>1.053146059166604</v>
+        <v>1.053146067881979</v>
       </c>
       <c r="E59">
-        <v>0.07020973727777356</v>
+        <v>0.07020973785879861</v>
       </c>
       <c r="F59">
-        <v>2.31713880532</v>
+        <v>2.317138782833334</v>
       </c>
       <c r="G59">
-        <v>4.011472125107711</v>
+        <v>4.011472037588423</v>
       </c>
       <c r="H59">
         <v>58</v>
@@ -10038,7 +10038,7 @@
         <v>191</v>
       </c>
       <c r="B60">
-        <v>34.28975175119999</v>
+        <v>34.2897513887</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -10050,10 +10050,10 @@
         <v>0.2008728699995833</v>
       </c>
       <c r="F60">
-        <v>5.714958625199999</v>
+        <v>5.714958564783334</v>
       </c>
       <c r="G60">
-        <v>2.691056456213392</v>
+        <v>2.691056425837048</v>
       </c>
       <c r="H60">
         <v>59</v>
@@ -10088,22 +10088,22 @@
         <v>192</v>
       </c>
       <c r="B61">
-        <v>33.0798634567</v>
+        <v>33.0798638117</v>
       </c>
       <c r="C61">
         <v>6</v>
       </c>
       <c r="D61">
-        <v>0.270059008912665</v>
+        <v>0.2700590055512214</v>
       </c>
       <c r="E61">
-        <v>0.0450098348187775</v>
+        <v>0.04500983425853689</v>
       </c>
       <c r="F61">
-        <v>5.513310576116666</v>
+        <v>5.513310635283333</v>
       </c>
       <c r="G61">
-        <v>1.945663191493779</v>
+        <v>1.945663202996817</v>
       </c>
       <c r="H61">
         <v>60</v>
@@ -10138,7 +10138,7 @@
         <v>193</v>
       </c>
       <c r="B62">
-        <v>32.57543711610001</v>
+        <v>32.57543736390001</v>
       </c>
       <c r="C62">
         <v>10</v>
@@ -10150,10 +10150,10 @@
         <v>0.0891324739852255</v>
       </c>
       <c r="F62">
-        <v>3.25754371161</v>
+        <v>3.257543736390001</v>
       </c>
       <c r="G62">
-        <v>2.402210632081415</v>
+        <v>2.402210672087812</v>
       </c>
       <c r="H62">
         <v>61</v>
@@ -10188,22 +10188,22 @@
         <v>194</v>
       </c>
       <c r="B63">
-        <v>32.479474329</v>
+        <v>32.479466427</v>
       </c>
       <c r="C63">
         <v>10</v>
       </c>
       <c r="D63">
-        <v>0.5053966147892724</v>
+        <v>0.5053966064351388</v>
       </c>
       <c r="E63">
-        <v>0.05053966147892724</v>
+        <v>0.05053966064351388</v>
       </c>
       <c r="F63">
-        <v>3.2479474329</v>
+        <v>3.2479466427</v>
       </c>
       <c r="G63">
-        <v>2.359773842384906</v>
+        <v>2.359773342961194</v>
       </c>
       <c r="H63">
         <v>62</v>
@@ -10238,22 +10238,22 @@
         <v>195</v>
       </c>
       <c r="B64">
-        <v>32.4221749893</v>
+        <v>32.4221745607</v>
       </c>
       <c r="C64">
         <v>11</v>
       </c>
       <c r="D64">
-        <v>1.374620650796419</v>
+        <v>1.374620647582199</v>
       </c>
       <c r="E64">
-        <v>0.1249655137087654</v>
+        <v>0.1249655134165636</v>
       </c>
       <c r="F64">
-        <v>2.947470453572727</v>
+        <v>2.947470414609091</v>
       </c>
       <c r="G64">
-        <v>5.315286407463049</v>
+        <v>5.315286381284449</v>
       </c>
       <c r="H64">
         <v>63</v>
@@ -10288,7 +10288,7 @@
         <v>196</v>
       </c>
       <c r="B65">
-        <v>31.1606018377</v>
+        <v>31.1606013196</v>
       </c>
       <c r="C65">
         <v>14</v>
@@ -10300,10 +10300,10 @@
         <v>0.1306770017965771</v>
       </c>
       <c r="F65">
-        <v>2.225757274121429</v>
+        <v>2.225757237114286</v>
       </c>
       <c r="G65">
-        <v>2.69451502367837</v>
+        <v>2.694514978185026</v>
       </c>
       <c r="H65">
         <v>64</v>
@@ -10338,22 +10338,22 @@
         <v>197</v>
       </c>
       <c r="B66">
-        <v>31.0385670214</v>
+        <v>31.03856732680001</v>
       </c>
       <c r="C66">
         <v>16</v>
       </c>
       <c r="D66">
-        <v>0.7904802570055752</v>
+        <v>0.7904802881040536</v>
       </c>
       <c r="E66">
-        <v>0.04940501606284845</v>
+        <v>0.04940501800650335</v>
       </c>
       <c r="F66">
-        <v>1.9399104388375</v>
+        <v>1.939910457925</v>
       </c>
       <c r="G66">
-        <v>1.364003709625375</v>
+        <v>1.364003727046469</v>
       </c>
       <c r="H66">
         <v>65</v>
@@ -10388,22 +10388,22 @@
         <v>198</v>
       </c>
       <c r="B67">
-        <v>30.4322366414</v>
+        <v>30.4322367752</v>
       </c>
       <c r="C67">
         <v>4</v>
       </c>
       <c r="D67">
-        <v>0.6549514879177174</v>
+        <v>0.6549514671541306</v>
       </c>
       <c r="E67">
-        <v>0.1637378719794294</v>
+        <v>0.1637378667885326</v>
       </c>
       <c r="F67">
-        <v>7.60805916035</v>
+        <v>7.6080591938</v>
       </c>
       <c r="G67">
-        <v>6.572341513520111</v>
+        <v>6.57234151842112</v>
       </c>
       <c r="H67">
         <v>66</v>
@@ -10438,22 +10438,22 @@
         <v>199</v>
       </c>
       <c r="B68">
-        <v>29.2806948122</v>
+        <v>29.2806891888</v>
       </c>
       <c r="C68">
         <v>17</v>
       </c>
       <c r="D68">
-        <v>2.61221864491753</v>
+        <v>2.612218630034408</v>
       </c>
       <c r="E68">
-        <v>0.1536599202892664</v>
+        <v>0.1536599194137887</v>
       </c>
       <c r="F68">
-        <v>1.722393812482353</v>
+        <v>1.722393481694118</v>
       </c>
       <c r="G68">
-        <v>1.851644233856462</v>
+        <v>1.851643992043436</v>
       </c>
       <c r="H68">
         <v>67</v>
@@ -10488,22 +10488,22 @@
         <v>200</v>
       </c>
       <c r="B69">
-        <v>28.981362141</v>
+        <v>28.981362154</v>
       </c>
       <c r="C69">
         <v>10</v>
       </c>
       <c r="D69">
-        <v>0.2829842835691667</v>
+        <v>0.2829842844183735</v>
       </c>
       <c r="E69">
-        <v>0.02829842835691667</v>
+        <v>0.02829842844183735</v>
       </c>
       <c r="F69">
-        <v>2.8981362141</v>
+        <v>2.8981362154</v>
       </c>
       <c r="G69">
-        <v>0.7655745607439639</v>
+        <v>0.7655745582941532</v>
       </c>
       <c r="H69">
         <v>68</v>
@@ -10538,22 +10538,22 @@
         <v>201</v>
       </c>
       <c r="B70">
-        <v>28.47522141880001</v>
+        <v>28.4752219418</v>
       </c>
       <c r="C70">
         <v>19</v>
       </c>
       <c r="D70">
-        <v>2.78688493826064</v>
+        <v>2.786884943716673</v>
       </c>
       <c r="E70">
-        <v>0.1466781546452969</v>
+        <v>0.1466781549324565</v>
       </c>
       <c r="F70">
-        <v>1.498695864147369</v>
+        <v>1.498695891673684</v>
       </c>
       <c r="G70">
-        <v>2.356264701456097</v>
+        <v>2.356264728444488</v>
       </c>
       <c r="H70">
         <v>69</v>
@@ -10588,22 +10588,22 @@
         <v>202</v>
       </c>
       <c r="B71">
-        <v>27.8001853741</v>
+        <v>27.8001853886</v>
       </c>
       <c r="C71">
         <v>13</v>
       </c>
       <c r="D71">
-        <v>1.067077549964245</v>
+        <v>1.067077545832755</v>
       </c>
       <c r="E71">
-        <v>0.08208288845878806</v>
+        <v>0.08208288814098114</v>
       </c>
       <c r="F71">
-        <v>2.138475798007692</v>
+        <v>2.138475799123077</v>
       </c>
       <c r="G71">
-        <v>1.745619303222263</v>
+        <v>1.74561944528882</v>
       </c>
       <c r="H71">
         <v>70</v>
@@ -10638,7 +10638,7 @@
         <v>203</v>
       </c>
       <c r="B72">
-        <v>27.7297622307</v>
+        <v>27.7297622161</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -10650,10 +10650,10 @@
         <v>0.07115085098959613</v>
       </c>
       <c r="F72">
-        <v>6.932440557675</v>
+        <v>6.932440554025</v>
       </c>
       <c r="G72">
-        <v>1.396307972596626</v>
+        <v>1.396307970975349</v>
       </c>
       <c r="H72">
         <v>71</v>
@@ -10688,7 +10688,7 @@
         <v>204</v>
       </c>
       <c r="B73">
-        <v>27.640981393</v>
+        <v>27.6409810242</v>
       </c>
       <c r="C73">
         <v>16</v>
@@ -10700,10 +10700,10 @@
         <v>0.5987000554429593</v>
       </c>
       <c r="F73">
-        <v>1.7275613370625</v>
+        <v>1.7275613140125</v>
       </c>
       <c r="G73">
-        <v>8.745446777395054</v>
+        <v>8.745446442452295</v>
       </c>
       <c r="H73">
         <v>72</v>
@@ -10738,22 +10738,22 @@
         <v>205</v>
       </c>
       <c r="B74">
-        <v>25.4158794776</v>
+        <v>25.4158793387</v>
       </c>
       <c r="C74">
         <v>13</v>
       </c>
       <c r="D74">
-        <v>1.967799366785203</v>
+        <v>1.967799364400477</v>
       </c>
       <c r="E74">
-        <v>0.1513691820604003</v>
+        <v>0.1513691818769598</v>
       </c>
       <c r="F74">
-        <v>1.955067652123077</v>
+        <v>1.955067641438461</v>
       </c>
       <c r="G74">
-        <v>4.019717068752876</v>
+        <v>4.019717033080467</v>
       </c>
       <c r="H74">
         <v>73</v>
@@ -10788,7 +10788,7 @@
         <v>206</v>
       </c>
       <c r="B75">
-        <v>24.556698845</v>
+        <v>24.556699488</v>
       </c>
       <c r="C75">
         <v>10</v>
@@ -10800,10 +10800,10 @@
         <v>0.1056149731635783</v>
       </c>
       <c r="F75">
-        <v>2.4556698845</v>
+        <v>2.4556699488</v>
       </c>
       <c r="G75">
-        <v>1.774147857141328</v>
+        <v>1.774147986996258</v>
       </c>
       <c r="H75">
         <v>74</v>
@@ -10838,22 +10838,22 @@
         <v>207</v>
       </c>
       <c r="B76">
-        <v>24.3264741749</v>
+        <v>24.3264744734</v>
       </c>
       <c r="C76">
         <v>16</v>
       </c>
       <c r="D76">
-        <v>4.256516504660772</v>
+        <v>4.256516503855142</v>
       </c>
       <c r="E76">
-        <v>0.2660322815412983</v>
+        <v>0.2660322814909464</v>
       </c>
       <c r="F76">
-        <v>1.52040463593125</v>
+        <v>1.5204046545875</v>
       </c>
       <c r="G76">
-        <v>3.822304074422898</v>
+        <v>3.822304034453278</v>
       </c>
       <c r="H76">
         <v>75</v>
@@ -10888,22 +10888,22 @@
         <v>208</v>
       </c>
       <c r="B77">
-        <v>23.7246674872</v>
+        <v>23.7246680514</v>
       </c>
       <c r="C77">
         <v>13</v>
       </c>
       <c r="D77">
-        <v>1.312695783709023</v>
+        <v>1.312695771378917</v>
       </c>
       <c r="E77">
-        <v>0.1009765987468479</v>
+        <v>0.1009765977983783</v>
       </c>
       <c r="F77">
-        <v>1.824974422092308</v>
+        <v>1.824974465492308</v>
       </c>
       <c r="G77">
-        <v>1.193811394619259</v>
+        <v>1.193811406202811</v>
       </c>
       <c r="H77">
         <v>76</v>
@@ -10938,7 +10938,7 @@
         <v>209</v>
       </c>
       <c r="B78">
-        <v>23.3297806039</v>
+        <v>23.329780302</v>
       </c>
       <c r="C78">
         <v>7</v>
@@ -10950,10 +10950,10 @@
         <v>0.1846131091733407</v>
       </c>
       <c r="F78">
-        <v>3.332825800557143</v>
+        <v>3.332825757428571</v>
       </c>
       <c r="G78">
-        <v>3.769599898390016</v>
+        <v>3.769599825344186</v>
       </c>
       <c r="H78">
         <v>77</v>
@@ -10988,22 +10988,22 @@
         <v>210</v>
       </c>
       <c r="B79">
-        <v>23.1984043155</v>
+        <v>23.1984039327</v>
       </c>
       <c r="C79">
         <v>16</v>
       </c>
       <c r="D79">
-        <v>0.5558282857833172</v>
+        <v>0.555828264940657</v>
       </c>
       <c r="E79">
-        <v>0.03473926786145733</v>
+        <v>0.03473926655879106</v>
       </c>
       <c r="F79">
-        <v>1.44990026971875</v>
+        <v>1.44990024579375</v>
       </c>
       <c r="G79">
-        <v>0.6846757336083596</v>
+        <v>0.6846757697438045</v>
       </c>
       <c r="H79">
         <v>78</v>
@@ -11038,22 +11038,22 @@
         <v>211</v>
       </c>
       <c r="B80">
-        <v>23.0450613175</v>
+        <v>23.0450607077</v>
       </c>
       <c r="C80">
         <v>15</v>
       </c>
       <c r="D80">
-        <v>0.466508608844424</v>
+        <v>0.4665086057541586</v>
       </c>
       <c r="E80">
-        <v>0.0311005739229616</v>
+        <v>0.03110057371694391</v>
       </c>
       <c r="F80">
-        <v>1.536337421166667</v>
+        <v>1.536337380513334</v>
       </c>
       <c r="G80">
-        <v>0.6479447538331292</v>
+        <v>0.6479447199507364</v>
       </c>
       <c r="H80">
         <v>79</v>
@@ -11088,22 +11088,22 @@
         <v>212</v>
       </c>
       <c r="B81">
-        <v>22.5857384852</v>
+        <v>22.5857384193</v>
       </c>
       <c r="C81">
         <v>10</v>
       </c>
       <c r="D81">
-        <v>0.6650479117898985</v>
+        <v>0.6650479109327733</v>
       </c>
       <c r="E81">
-        <v>0.06650479117898986</v>
+        <v>0.06650479109327732</v>
       </c>
       <c r="F81">
-        <v>2.25857384852</v>
+        <v>2.25857384193</v>
       </c>
       <c r="G81">
-        <v>1.441466110665406</v>
+        <v>1.441466083629077</v>
       </c>
       <c r="H81">
         <v>80</v>
@@ -11138,7 +11138,7 @@
         <v>213</v>
       </c>
       <c r="B82">
-        <v>22.3960497211</v>
+        <v>22.3960497498</v>
       </c>
       <c r="C82">
         <v>16</v>
@@ -11150,10 +11150,10 @@
         <v>0.1657319042916159</v>
       </c>
       <c r="F82">
-        <v>1.39975310756875</v>
+        <v>1.3997531093625</v>
       </c>
       <c r="G82">
-        <v>2.62490646894867</v>
+        <v>2.624906393580444</v>
       </c>
       <c r="H82">
         <v>81</v>
@@ -11188,7 +11188,7 @@
         <v>214</v>
       </c>
       <c r="B83">
-        <v>22.378285208</v>
+        <v>22.378285585</v>
       </c>
       <c r="C83">
         <v>6</v>
@@ -11200,10 +11200,10 @@
         <v>0.02617654882691621</v>
       </c>
       <c r="F83">
-        <v>3.729714201333334</v>
+        <v>3.729714264166666</v>
       </c>
       <c r="G83">
-        <v>0.5295400614767624</v>
+        <v>0.529540067606869</v>
       </c>
       <c r="H83">
         <v>82</v>
@@ -11238,7 +11238,7 @@
         <v>215</v>
       </c>
       <c r="B84">
-        <v>22.163287028</v>
+        <v>22.163287206</v>
       </c>
       <c r="C84">
         <v>11</v>
@@ -11250,10 +11250,10 @@
         <v>0.07187714323671658</v>
       </c>
       <c r="F84">
-        <v>2.014844275272727</v>
+        <v>2.014844291454545</v>
       </c>
       <c r="G84">
-        <v>1.473986311785653</v>
+        <v>1.47398631833086</v>
       </c>
       <c r="H84">
         <v>83</v>
@@ -11288,7 +11288,7 @@
         <v>216</v>
       </c>
       <c r="B85">
-        <v>22.063156517</v>
+        <v>22.063156082</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -11300,10 +11300,10 @@
         <v>0.09665263767467835</v>
       </c>
       <c r="F85">
-        <v>7.354385505666666</v>
+        <v>7.354385360666666</v>
       </c>
       <c r="G85">
-        <v>3.489592146911716</v>
+        <v>3.489592128865235</v>
       </c>
       <c r="H85">
         <v>84</v>
@@ -11338,22 +11338,22 @@
         <v>217</v>
       </c>
       <c r="B86">
-        <v>21.96384947782</v>
+        <v>21.96384979138</v>
       </c>
       <c r="C86">
         <v>9</v>
       </c>
       <c r="D86">
-        <v>0.1543753707058887</v>
+        <v>0.1543753751927456</v>
       </c>
       <c r="E86">
-        <v>0.01715281896732097</v>
+        <v>0.01715281946586063</v>
       </c>
       <c r="F86">
-        <v>2.440427719757778</v>
+        <v>2.440427754597778</v>
       </c>
       <c r="G86">
-        <v>0.3380455167301801</v>
+        <v>0.3380455220523935</v>
       </c>
       <c r="H86">
         <v>85</v>
@@ -11388,7 +11388,7 @@
         <v>218</v>
       </c>
       <c r="B87">
-        <v>21.770842993</v>
+        <v>21.770842724</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -11400,10 +11400,10 @@
         <v>0.1741655114704968</v>
       </c>
       <c r="F87">
-        <v>5.442710748250001</v>
+        <v>5.442710680999999</v>
       </c>
       <c r="G87">
-        <v>1.888771485284188</v>
+        <v>1.888771356578591</v>
       </c>
       <c r="H87">
         <v>86</v>
@@ -11438,22 +11438,22 @@
         <v>219</v>
       </c>
       <c r="B88">
-        <v>21.0737729128</v>
+        <v>21.0737724225</v>
       </c>
       <c r="C88">
         <v>14</v>
       </c>
       <c r="D88">
-        <v>1.08488468032473</v>
+        <v>1.084884682773445</v>
       </c>
       <c r="E88">
-        <v>0.07749176288033786</v>
+        <v>0.07749176305524605</v>
       </c>
       <c r="F88">
-        <v>1.505269493771429</v>
+        <v>1.50526945875</v>
       </c>
       <c r="G88">
-        <v>2.245949434563206</v>
+        <v>2.245949428202058</v>
       </c>
       <c r="H88">
         <v>87</v>
@@ -11488,22 +11488,22 @@
         <v>220</v>
       </c>
       <c r="B89">
-        <v>21.06535238089</v>
+        <v>21.06535186474</v>
       </c>
       <c r="C89">
         <v>14</v>
       </c>
       <c r="D89">
-        <v>0.5511774722805806</v>
+        <v>0.5511774661880544</v>
       </c>
       <c r="E89">
-        <v>0.0393698194486129</v>
+        <v>0.03936981901343246</v>
       </c>
       <c r="F89">
-        <v>1.504668027206428</v>
+        <v>1.504667990338572</v>
       </c>
       <c r="G89">
-        <v>0.8677923039094986</v>
+        <v>0.8677922709526655</v>
       </c>
       <c r="H89">
         <v>88</v>
@@ -11538,7 +11538,7 @@
         <v>221</v>
       </c>
       <c r="B90">
-        <v>20.693804561</v>
+        <v>20.693804248</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -11550,10 +11550,10 @@
         <v>0.1056118833226906</v>
       </c>
       <c r="F90">
-        <v>5.173451140250001</v>
+        <v>5.173451062000001</v>
       </c>
       <c r="G90">
-        <v>1.508583084511933</v>
+        <v>1.508583015033633</v>
       </c>
       <c r="H90">
         <v>89</v>
@@ -11588,22 +11588,22 @@
         <v>222</v>
       </c>
       <c r="B91">
-        <v>20.5113009894</v>
+        <v>20.51130105979999</v>
       </c>
       <c r="C91">
         <v>20</v>
       </c>
       <c r="D91">
-        <v>7.702006655468862</v>
+        <v>7.702006631295488</v>
       </c>
       <c r="E91">
-        <v>0.3851003327734431</v>
+        <v>0.3851003315647744</v>
       </c>
       <c r="F91">
-        <v>1.02556504947</v>
+        <v>1.02556505299</v>
       </c>
       <c r="G91">
-        <v>5.381403539457023</v>
+        <v>5.381403347419691</v>
       </c>
       <c r="H91">
         <v>90</v>
@@ -11638,22 +11638,22 @@
         <v>223</v>
       </c>
       <c r="B92">
-        <v>20.3161531409</v>
+        <v>20.3161531717</v>
       </c>
       <c r="C92">
         <v>9</v>
       </c>
       <c r="D92">
-        <v>0.581851089564439</v>
+        <v>0.5818510879487985</v>
       </c>
       <c r="E92">
-        <v>0.06465012106271545</v>
+        <v>0.06465012088319982</v>
       </c>
       <c r="F92">
-        <v>2.257350348988889</v>
+        <v>2.257350352411111</v>
       </c>
       <c r="G92">
-        <v>1.19806294117457</v>
+        <v>1.198062939674572</v>
       </c>
       <c r="H92">
         <v>91</v>
@@ -11688,22 +11688,22 @@
         <v>224</v>
       </c>
       <c r="B93">
-        <v>20.2867477848</v>
+        <v>20.2867474848</v>
       </c>
       <c r="C93">
         <v>9</v>
       </c>
       <c r="D93">
-        <v>0.6245919499595021</v>
+        <v>0.6245919482053445</v>
       </c>
       <c r="E93">
-        <v>0.06939910555105579</v>
+        <v>0.06939910535614939</v>
       </c>
       <c r="F93">
-        <v>2.2540830872</v>
+        <v>2.254083053866667</v>
       </c>
       <c r="G93">
-        <v>0.8908258038210158</v>
+        <v>0.8908258164399442</v>
       </c>
       <c r="H93">
         <v>92</v>
@@ -11738,22 +11738,22 @@
         <v>225</v>
       </c>
       <c r="B94">
-        <v>19.6083487618</v>
+        <v>19.6083482466</v>
       </c>
       <c r="C94">
         <v>11</v>
       </c>
       <c r="D94">
-        <v>1.8021211204312</v>
+        <v>1.80212112214862</v>
       </c>
       <c r="E94">
-        <v>0.1638291927664727</v>
+        <v>0.1638291929226019</v>
       </c>
       <c r="F94">
-        <v>1.782577160163637</v>
+        <v>1.782577113327273</v>
       </c>
       <c r="G94">
-        <v>1.842378591151975</v>
+        <v>1.842378616925424</v>
       </c>
       <c r="H94">
         <v>93</v>
@@ -11788,22 +11788,22 @@
         <v>226</v>
       </c>
       <c r="B95">
-        <v>19.4894311204</v>
+        <v>19.4894314053</v>
       </c>
       <c r="C95">
         <v>9</v>
       </c>
       <c r="D95">
-        <v>0.2728169292279047</v>
+        <v>0.2728169276423534</v>
       </c>
       <c r="E95">
-        <v>0.03031299213643385</v>
+        <v>0.03031299196026149</v>
       </c>
       <c r="F95">
-        <v>2.165492346711111</v>
+        <v>2.165492378366667</v>
       </c>
       <c r="G95">
-        <v>0.4028430191230761</v>
+        <v>0.4028430378520674</v>
       </c>
       <c r="H95">
         <v>94</v>
@@ -11888,22 +11888,22 @@
         <v>228</v>
       </c>
       <c r="B97">
-        <v>18.3217809861</v>
+        <v>18.3217813791</v>
       </c>
       <c r="C97">
         <v>11</v>
       </c>
       <c r="D97">
-        <v>0.4928573391262447</v>
+        <v>0.4928573374735783</v>
       </c>
       <c r="E97">
-        <v>0.04480521264784042</v>
+        <v>0.04480521249759803</v>
       </c>
       <c r="F97">
-        <v>1.665616453281818</v>
+        <v>1.665616489009091</v>
       </c>
       <c r="G97">
-        <v>1.248956475018606</v>
+        <v>1.248956498456828</v>
       </c>
       <c r="H97">
         <v>96</v>
@@ -11938,7 +11938,7 @@
         <v>229</v>
       </c>
       <c r="B98">
-        <v>18.2509527581</v>
+        <v>18.2509531181</v>
       </c>
       <c r="C98">
         <v>6</v>
@@ -11950,10 +11950,10 @@
         <v>0.06037253348304657</v>
       </c>
       <c r="F98">
-        <v>3.041825459683334</v>
+        <v>3.041825519683333</v>
       </c>
       <c r="G98">
-        <v>1.143758470245196</v>
+        <v>1.143758490095381</v>
       </c>
       <c r="H98">
         <v>97</v>
@@ -11988,22 +11988,22 @@
         <v>230</v>
       </c>
       <c r="B99">
-        <v>18.151694188</v>
+        <v>18.15169394899999</v>
       </c>
       <c r="C99">
         <v>10</v>
       </c>
       <c r="D99">
-        <v>0.983660132789808</v>
+        <v>0.9836601296392085</v>
       </c>
       <c r="E99">
-        <v>0.0983660132789808</v>
+        <v>0.09836601296392085</v>
       </c>
       <c r="F99">
-        <v>1.8151694188</v>
+        <v>1.815169394899999</v>
       </c>
       <c r="G99">
-        <v>1.781391924564016</v>
+        <v>1.78139187524816</v>
       </c>
       <c r="H99">
         <v>98</v>
@@ -12038,22 +12038,22 @@
         <v>231</v>
       </c>
       <c r="B100">
-        <v>18.021727436</v>
+        <v>18.0217278</v>
       </c>
       <c r="C100">
         <v>7</v>
       </c>
       <c r="D100">
-        <v>0.9179381002199904</v>
+        <v>0.9179380984601391</v>
       </c>
       <c r="E100">
-        <v>0.1311340143171415</v>
+        <v>0.1311340140657342</v>
       </c>
       <c r="F100">
-        <v>2.574532490857143</v>
+        <v>2.574532542857143</v>
       </c>
       <c r="G100">
-        <v>2.038066177369</v>
+        <v>2.038066149972234</v>
       </c>
       <c r="H100">
         <v>99</v>
@@ -12088,7 +12088,7 @@
         <v>232</v>
       </c>
       <c r="B101">
-        <v>17.610917839</v>
+        <v>17.61091775</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -12100,10 +12100,10 @@
         <v>0.2461065725739898</v>
       </c>
       <c r="F101">
-        <v>4.40272945975</v>
+        <v>4.4027294375</v>
       </c>
       <c r="G101">
-        <v>5.208226066407324</v>
+        <v>5.20822603756815</v>
       </c>
       <c r="H101">
         <v>100</v>
@@ -12146,26 +12146,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" customWidth="1"/>
+    <col min="1" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="18" width="16.28515625" customWidth="1"/>
+    <col min="19" max="20" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" ht="20" customHeight="1">
@@ -12207,7 +12190,7 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>0.5</v>
       </c>
       <c r="B2">
@@ -12269,7 +12252,7 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
@@ -12295,7 +12278,7 @@
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>1.5</v>
       </c>
       <c r="B4">
@@ -12321,7 +12304,7 @@
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
@@ -12347,7 +12330,7 @@
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>2.5</v>
       </c>
       <c r="B6">
@@ -12373,7 +12356,7 @@
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>3</v>
       </c>
       <c r="B7">
@@ -12399,7 +12382,7 @@
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>3.5</v>
       </c>
       <c r="B8">
@@ -12419,7 +12402,7 @@
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>4</v>
       </c>
       <c r="B9">
@@ -12439,7 +12422,7 @@
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>4.5</v>
       </c>
       <c r="B10">
@@ -12459,7 +12442,7 @@
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>7.5</v>
       </c>
       <c r="B11">
@@ -12479,7 +12462,7 @@
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>12.5</v>
       </c>
       <c r="B12">
@@ -12493,7 +12476,7 @@
       </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>17.5</v>
       </c>
       <c r="B13">
@@ -12507,7 +12490,7 @@
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>22.5</v>
       </c>
       <c r="B14">
@@ -12521,7 +12504,7 @@
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>27.5</v>
       </c>
       <c r="B15">
